--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ECEBC8-44EF-4760-9E17-37AAE542B5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5760A-E2E9-42F4-A8D9-D345478AD30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guardian'sOrb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>守护者法球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>{"abilityPower" : 55, "AbilityHaste" : 25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sOrb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -448,15 +448,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5760A-E2E9-42F4-A8D9-D345478AD30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30921761-485F-4613-9B30-B08492C65F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每5秒回复&lt;color=#0066FF&gt;法力值&lt;/color&gt;.如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复原力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,464 @@
   </si>
   <si>
     <t>Guardian_sOrb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage": 25,"maxHealthPoint": 250,"abilityHaste": 15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者法衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"maxHealthPoint":300,"abilityPower":35,"abilityHaste":15}</t>
+  </si>
+  <si>
+    <t>守护者短匕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":25,"attackPenetration":11,"abilityHaste":10}</t>
+  </si>
+  <si>
+    <t>Guardian_sHammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者之锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速和吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者号角</t>
+  </si>
+  <si>
+    <t>不屈不挠</t>
+  </si>
+  <si>
+    <t>格挡来自英雄的攻击和技能的12伤害</t>
+  </si>
+  <si>
+    <t>Starter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sHorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sClothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_activeSkillCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击增幅</t>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luden_sCompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢登的配枪</t>
+  </si>
+  <si>
+    <t>爆发伤害</t>
+  </si>
+  <si>
+    <t>{"abilityPower":85,"maxMagicPoint":600,"abilityHaste":25}</t>
+  </si>
+  <si>
+    <t>开火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极技能强度</t>
+  </si>
+  <si>
+    <t>蔑视与憎恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯炎火炬</t>
+  </si>
+  <si>
+    <t>持续伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxMagicPoint":600,"abilityHaste":20}</t>
+  </si>
+  <si>
+    <t>邪焰</t>
+  </si>
+  <si>
+    <t>大天使之杖</t>
+  </si>
+  <si>
+    <t>法力值增长</t>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxMagicPoint":1200,"abilityHaste":25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽天使之拥</t>
+  </si>
+  <si>
+    <t>{"abilityPower":55,"maxMagicPoint":600,"abilityHaste":25}</t>
+  </si>
+  <si>
+    <t>获得相当于&lt;color=#C97BFF&gt;2%额外法力值&lt;/color&gt;的法术强度。
+在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬畏</t>
+  </si>
+  <si>
+    <t>_passiveSkillCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救主灵刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muramana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manamune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔切</t>
+  </si>
+  <si>
+    <t>{"attackDamage":40,"maxMagicPoint":1000,"abilityHaste":15}</t>
+  </si>
+  <si>
+    <t>{"attackDamage":40,"maxMagicPoint":600,"abilityHaste":15}</t>
+  </si>
+  <si>
+    <t>获得相当于&lt;color=#FF6161&gt;13%额外法力值&lt;/color&gt;的攻击力。
+在击杀50个敌人后，这件装备会转变为魔切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜之心</t>
+  </si>
+  <si>
+    <t>FrozenHeart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻型英雄的克星</t>
+  </si>
+  <si>
+    <t>{"attackDefense":90,"maxMagicPoint":450,"abilityHaste":15}</t>
+  </si>
+  <si>
+    <t>凛冬之扰</t>
+  </si>
+  <si>
+    <t>时光之杖</t>
+  </si>
+  <si>
+    <t>属性成长</t>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350,"maxMagicPoint":300}</t>
+  </si>
+  <si>
+    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
+承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;7%&lt;/color&gt;的法力值；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;25%&lt;/color&gt;的生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光永恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海克斯科技火箭腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动力</t>
+  </si>
+  <si>
+    <t>视界专注</t>
+  </si>
+  <si>
+    <t>高能射击</t>
+  </si>
+  <si>
+    <t>当你命中600码外的英雄时，造成的伤害增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超音速</t>
+  </si>
+  <si>
+    <t>（&lt;color=#FFE761&gt;25秒&lt;/color&gt;冷却）：向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;100&lt;/color&gt;（= &lt;color=#C97BFF&gt;100 + 10% 法强&lt;/color&gt;）魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":95,"maxHealthPoint":400,"abilityHaste":25}</t>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"abilityHaste":25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海克斯科技枪刃</t>
+  </si>
+  <si>
+    <t>全能吸血</t>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"attackDamage":45,"omnivamp":0.15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":55,"percentageCriticalRate":0.25,"criticalDamage":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"maxHealthPoint":250,"abilityHaste":15}</t>
+  </si>
+  <si>
+    <t>影焰</t>
+  </si>
+  <si>
+    <t>技能暴击</t>
+  </si>
+  <si>
+    <t>余烬绽放</t>
+  </si>
+  <si>
+    <t>魔法伤害和真实伤害会对生命值低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;提升伤害</t>
+  </si>
+  <si>
+    <t>风暴狂涌</t>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":4}</t>
+  </si>
+  <si>
+    <t>风暴掠袭</t>
+  </si>
+  <si>
+    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能获得&lt;color=#FFE761&gt;20技能急速&lt;/color&gt;
+终极技能命中时，在脚下生成灼烧区域，造成&lt;color=#00D8FF&gt;{0:F0}=（115+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害型技能会消耗6层弹丸充能来对目标造成额外{0:F0}=（80+5%法术强度+6%额外攻击力）的伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使附近敌人的&lt;color=#FFE761&gt;攻击速度降低30%&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2.5秒内对一个英雄造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在两秒后对目标造成&lt;color=#00D8FF&gt;{0:F0}=（180 + 30% 法强）魔法伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得相当于&lt;color=#FF6161&gt;20%额外法力值&lt;/color&gt;的攻击力。
+普攻造成额外&lt;color=#FF6A6A&gt;{0:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
+技能造成额外&lt;color=#FF6A6A&gt;{1:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得相当于&lt;color=#C97BFF&gt;4%额外法力值&lt;/color&gt;的法术强度。
+生命值低于30%时，获得一个护盾，吸收&lt;color=#1DA1FF&gt;{0:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）伤害&lt;/color&gt;，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫妖之祸</t>
+  </si>
+  <si>
+    <t>爆发伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":80,"percentageMovementSpeed":0.1,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒刃</t>
+  </si>
+  <si>
+    <t>施放技能后，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75% 基础攻击&lt;/color&gt; + &lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女妖面纱</t>
+  </si>
+  <si>
+    <t>法术护盾</t>
+  </si>
+  <si>
+    <t>{"abilityPower":80,"magicDefense":40}</t>
+  </si>
+  <si>
+    <t>提供一层法术护盾以格挡下一个敌方技能</t>
+  </si>
+  <si>
+    <t>废除</t>
+  </si>
+  <si>
+    <t>纳什之牙</t>
+  </si>
+  <si>
+    <t>攻击附带魔法伤害</t>
+  </si>
+  <si>
+    <t>{"abilityPower":70,"attackSpeed":0.45,"abilityHaste":10}</t>
+  </si>
+  <si>
+    <t>艾卡西亚之咬</t>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（15 + &lt;color=#C97BFF&gt;20%&lt;/color&gt;法强）魔法伤害并触发攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage" : 25,"attackSpeed" : 0.35, "lifeSteal" : 0.05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sDagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"maxHealthPoint":300, "percentageHealthRegeneration" : 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量与回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfinityEdge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabadon_sAgony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":70,"maxMagicPoint":600,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liandry_sTorment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archangel_sStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seraph_sEmbrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RodofAges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HextechRocketBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HorizonFocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HextechGunblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadowflame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stormsurge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LichBane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BansheesVeil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nashors_Tooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;，如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,10 +593,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -435,83 +892,781 @@
     <col min="1" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
       </c>
+      <c r="C5" s="1">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>500</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="R10" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="R11" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>25</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30921761-485F-4613-9B30-B08492C65F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239F3DE-1A99-4C0C-951F-7FF1F3DA2E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"attackDamage":55,"percentageCriticalRate":0.25,"criticalDamage":0.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"abilityPower":90,"maxHealthPoint":250,"abilityHaste":15}</t>
   </si>
   <si>
@@ -430,10 +426,6 @@
     <t>咒刃</t>
   </si>
   <si>
-    <t>施放技能后，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75% 基础攻击&lt;/color&gt; + &lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CursedBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,10 +457,6 @@
     <t>艾卡西亚之咬</t>
   </si>
   <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（15 + &lt;color=#C97BFF&gt;20%&lt;/color&gt;法强）魔法伤害并触发攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attackDamage" : 25,"attackSpeed" : 0.35, "lifeSteal" : 0.05}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +538,18 @@
   </si>
   <si>
     <t>每5秒回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;，如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":55,"criticalRate":0.25,"criticalDamage":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%法强）魔法伤害&lt;/color&gt;的攻击特效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -906,7 +906,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -915,22 +915,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -942,31 +942,31 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,19 +1031,19 @@
         <v>87</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1099,19 +1099,19 @@
         <v>88</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,19 +1285,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1330,19 +1330,19 @@
         <v>89</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1350,34 +1350,34 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>76</v>
@@ -1386,19 +1386,19 @@
         <v>82</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,19 +1443,19 @@
         <v>81</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1663,10 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239F3DE-1A99-4C0C-951F-7FF1F3DA2E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929C508-2320-4FE4-B929-E771F8C03B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,9 +373,6 @@
     <t>风暴狂涌</t>
   </si>
   <si>
-    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":4}</t>
-  </si>
-  <si>
     <t>风暴掠袭</t>
   </si>
   <si>
@@ -550,6 +547,10 @@
   </si>
   <si>
     <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%法强）魔法伤害&lt;/color&gt;的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -906,7 +907,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -915,22 +916,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -942,31 +943,31 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1037,13 +1038,13 @@
         <v>95</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1105,13 +1106,13 @@
         <v>40</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1333,16 +1334,16 @@
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1350,34 +1351,34 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>76</v>
@@ -1389,16 +1390,16 @@
         <v>94</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1446,16 +1447,16 @@
         <v>93</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,10 +1664,10 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F929C508-2320-4FE4-B929-E771F8C03B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABFB8B-2187-4F61-A3F5-B1644F57F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.4}</t>
+    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABFB8B-2187-4F61-A3F5-B1644F57F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44C480-8806-4A9B-AE27-540265F39ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,6 @@
     <t>{"abilityPower":80,"magicDefense":40}</t>
   </si>
   <si>
-    <t>提供一层法术护盾以格挡下一个敌方技能</t>
-  </si>
-  <si>
     <t>废除</t>
   </si>
   <si>
@@ -551,6 +548,11 @@
   </si>
   <si>
     <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供一层免疫护盾以格挡下一个敌方攻击。
+CD10秒，但是受到攻击就会被打断。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="S6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -907,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -916,22 +918,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -943,31 +945,31 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,7 +1046,7 @@
         <v>109</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1112,7 +1114,7 @@
         <v>110</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1286,19 +1288,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1334,7 +1336,7 @@
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>106</v>
@@ -1343,7 +1345,7 @@
         <v>111</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1351,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
@@ -1393,13 +1395,13 @@
         <v>101</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1453,10 +1455,10 @@
         <v>107</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,7 +1669,7 @@
         <v>108</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44C480-8806-4A9B-AE27-540265F39ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B5BB33-A74A-4DB3-B1DB-1EEED106B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,132 +427,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女妖面纱</t>
-  </si>
-  <si>
-    <t>法术护盾</t>
-  </si>
-  <si>
-    <t>{"abilityPower":80,"magicDefense":40}</t>
-  </si>
-  <si>
-    <t>废除</t>
-  </si>
-  <si>
     <t>纳什之牙</t>
   </si>
   <si>
+    <t>{"abilityPower":70,"attackSpeed":0.45,"abilityHaste":10}</t>
+  </si>
+  <si>
+    <t>艾卡西亚之咬</t>
+  </si>
+  <si>
+    <t>{"attackDamage" : 25,"attackSpeed" : 0.35, "lifeSteal" : 0.05}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian_sDagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"maxHealthPoint":300, "percentageHealthRegeneration" : 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量与回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfinityEdge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabadon_sAgony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":70,"maxMagicPoint":600,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liandry_sTorment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archangel_sStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seraph_sEmbrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RodofAges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HextechRocketBelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HorizonFocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HextechGunblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadowflame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stormsurge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LichBane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nashors_Tooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5秒回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;，如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":55,"criticalRate":0.25,"criticalDamage":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%法强）魔法伤害&lt;/color&gt;的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击附带魔法伤害</t>
-  </si>
-  <si>
-    <t>{"abilityPower":70,"attackSpeed":0.45,"abilityHaste":10}</t>
-  </si>
-  <si>
-    <t>艾卡西亚之咬</t>
-  </si>
-  <si>
-    <t>{"attackDamage" : 25,"attackSpeed" : 0.35, "lifeSteal" : 0.05}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guardian_sDagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"maxHealthPoint":300, "percentageHealthRegeneration" : 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量与回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InfinityEdge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rabadon_sAgony</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":70,"maxMagicPoint":600,"abilityHaste":20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liandry_sTorment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Archangel_sStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seraph_sEmbrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RodofAges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HextechRocketBelt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HorizonFocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HextechGunblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadowflame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stormsurge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LichBane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BansheesVeil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nashors_Tooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5秒回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;，如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施放技能后，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":55,"criticalRate":0.25,"criticalDamage":0.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%法强）魔法伤害&lt;/color&gt;的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供一层免疫护盾以格挡下一个敌方攻击。
-CD10秒，但是受到攻击就会被打断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后5秒内，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,16 +862,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="32.375" style="1"/>
+    <col min="1" max="24" width="32.375" style="1"/>
+    <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +886,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -918,22 +895,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -945,34 +922,31 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,11 +1019,8 @@
       <c r="X2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1111,13 +1082,10 @@
         <v>105</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1190,11 +1158,8 @@
       <c r="X4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,11 +1232,8 @@
       <c r="X5" s="1">
         <v>2500</v>
       </c>
-      <c r="Y5" s="1">
-        <v>2500</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,19 +1250,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1336,24 +1298,21 @@
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
@@ -1395,16 +1354,13 @@
         <v>101</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1455,13 +1411,10 @@
         <v>107</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1532,13 +1485,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1627,11 +1577,8 @@
       <c r="X12" s="1">
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1667,9 +1614,6 @@
       </c>
       <c r="W13" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B5BB33-A74A-4DB3-B1DB-1EEED106B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE86B6A-6FB7-47DE-B6A3-26F92E4E17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,10 +390,6 @@
   </si>
   <si>
     <t>使附近敌人的&lt;color=#FFE761&gt;攻击速度降低30%&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在2.5秒内对一个英雄造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在两秒后对目标造成&lt;color=#00D8FF&gt;{0:F0}=（180 + 30% 法强）魔法伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,7 +524,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施放技能后5秒内，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;60&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害并触发攻击特效</t>
+    <t>施放技能后5秒内，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害的攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对一个英雄造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在2秒后对目标造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% 法术强度）魔法伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="S5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -886,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -895,22 +899,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -922,28 +926,28 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1014,10 +1018,10 @@
         <v>95</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1034,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1076,13 +1080,13 @@
         <v>92</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,19 +1254,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1298,13 +1302,13 @@
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,7 +1316,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
@@ -1330,13 +1334,13 @@
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>100</v>
@@ -1351,13 +1355,13 @@
         <v>94</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,10 +1412,10 @@
         <v>96</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -1613,7 +1617,7 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE86B6A-6FB7-47DE-B6A3-26F92E4E17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4344F019-94D7-45C6-B3CF-6008500B3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,13 +361,7 @@
     <t>影焰</t>
   </si>
   <si>
-    <t>技能暴击</t>
-  </si>
-  <si>
     <t>余烬绽放</t>
-  </si>
-  <si>
-    <t>魔法伤害和真实伤害会对生命值低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;提升伤害</t>
   </si>
   <si>
     <t>风暴狂涌</t>
@@ -524,15 +518,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施放技能后5秒内，你的下一次普攻会因强化而附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害的攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能爆发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在2.5秒内使用技能对一个英雄造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在2秒后对目标造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% 法术强度）魔法伤害&lt;/color&gt;。</t>
+    <t>残血收割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害会对生命值低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% 法术强度）魔法伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后5秒内，下次攻击会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害的攻击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -899,22 +901,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -926,28 +928,28 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,13 +1017,13 @@
         <v>91</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,7 +1040,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1077,16 +1079,16 @@
         <v>88</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,19 +1256,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1302,13 +1304,13 @@
         <v>90</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,34 +1318,34 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>76</v>
@@ -1352,16 +1354,16 @@
         <v>82</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1406,16 +1408,16 @@
         <v>81</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1617,7 +1619,7 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4344F019-94D7-45C6-B3CF-6008500B3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA2A82-044E-41AA-A65C-E373D286B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,15 +327,7 @@
     <t>高能射击</t>
   </si>
   <si>
-    <t>当你命中600码外的英雄时，造成的伤害增加20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超音速</t>
-  </si>
-  <si>
-    <t>（&lt;color=#FFE761&gt;25秒&lt;/color&gt;冷却）：向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;100&lt;/color&gt;（= &lt;color=#C97BFF&gt;100 + 10% 法强&lt;/color&gt;）魔法伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"abilityPower":95,"maxHealthPoint":400,"abilityHaste":25}</t>
@@ -535,6 +527,15 @@
   </si>
   <si>
     <t>施放技能后5秒内，下次攻击会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害的攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你命中1000码外的英雄时，造成额外的20%真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%法术强度&lt;/color&gt;）魔法伤害&lt;/color&gt;。
+该装备的位移可以越过墙体。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V5" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -892,7 +893,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -901,22 +902,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -928,28 +929,28 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1011,19 +1012,19 @@
         <v>80</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1040,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1076,19 +1077,19 @@
         <v>79</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,19 +1257,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1292,25 +1293,25 @@
         <v>75</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1318,52 +1319,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,16 +1409,16 @@
         <v>81</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DA2A82-044E-41AA-A65C-E373D286B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE900436-12B8-4D85-AAAE-F0457DDA1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,14 +302,6 @@
     <t>属性成长</t>
   </si>
   <si>
-    <t>{"abilityPower":60,"maxHealthPoint":350,"maxMagicPoint":300}</t>
-  </si>
-  <si>
-    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
-承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;7%&lt;/color&gt;的法力值；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;25%&lt;/color&gt;的生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时光永恒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +528,15 @@
   <si>
     <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%法术强度&lt;/color&gt;）魔法伤害&lt;/color&gt;。
 该装备的位移可以越过墙体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350,"maxMagicPoint":300}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
+承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的法力值&lt;/color&gt;；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;消耗法力值25%的生命值&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -893,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -902,22 +903,22 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>59</v>
@@ -929,28 +930,28 @@
         <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,25 +1007,25 @@
         <v>73</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1041,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1074,22 +1075,22 @@
         <v>74</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1257,19 +1258,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
@@ -1290,28 +1291,28 @@
         <v>71</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1319,52 +1320,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1403,22 +1404,22 @@
         <v>72</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1500,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,7 +1621,7 @@
         <v>66</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE900436-12B8-4D85-AAAE-F0457DDA1636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9391B-FBC9-4BDF-8A54-58E279C5528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>不屈不挠</t>
   </si>
   <si>
-    <t>格挡来自英雄的攻击和技能的12伤害</t>
-  </si>
-  <si>
     <t>Starter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +361,6 @@
   </si>
   <si>
     <t>伤害型技能会消耗6层弹丸充能来对目标造成额外{0:F0}=（80+5%法术强度+6%额外攻击力）的伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使附近敌人的&lt;color=#FFE761&gt;攻击速度降低30%&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,6 +530,14 @@
   <si>
     <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
 承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的法力值&lt;/color&gt;；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;消耗法力值25%的生命值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定格挡来自英雄的攻击和技能的12点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -891,67 +892,67 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -977,55 +978,55 @@
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,55 +1043,55 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,73 +1099,73 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1258,61 +1259,61 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="W6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1320,52 +1321,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,51 +1381,51 @@
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1501,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1509,12 +1510,12 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1609,19 +1610,19 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9391B-FBC9-4BDF-8A54-58E279C5528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE039D-2058-4BB8-8E28-CD72D2AA8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,11 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的终极技能获得&lt;color=#FFE761&gt;20技能急速&lt;/color&gt;
-终极技能命中时，在脚下生成灼烧区域，造成&lt;color=#00D8FF&gt;{0:F0}=（115+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害型技能会消耗6层弹丸充能来对目标造成额外{0:F0}=（80+5%法术强度+6%额外攻击力）的伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每5秒回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;，如果你不能回复法力值，则转而回复&lt;color=#00FF00&gt;15生命值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attackDamage":55,"criticalRate":0.25,"criticalDamage":0.4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,6 +529,15 @@
   </si>
   <si>
     <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能获得10%额外伤害
+终极技能命中时，在脚下生成灼烧区域，造成&lt;color=#00D8FF&gt;{0:F0}=（115+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,22 +904,22 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>58</v>
@@ -931,28 +931,28 @@
         <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,10 +1023,10 @@
         <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1082,16 +1082,16 @@
         <v>83</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -1292,7 +1292,7 @@
         <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>80</v>
@@ -1307,13 +1307,13 @@
         <v>85</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,16 +1321,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>90</v>
@@ -1339,34 +1339,34 @@
         <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1417,10 +1417,10 @@
         <v>89</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE039D-2058-4BB8-8E28-CD72D2AA8C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54C2F5-1289-4D1A-9A7F-FB2AA8E9A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,13 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">获得相当于&lt;color=#FF6161&gt;20%额外法力值&lt;/color&gt;的攻击力。
-普攻造成额外&lt;color=#FF6A6A&gt;{0:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
-技能造成额外&lt;color=#FF6A6A&gt;{1:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得相当于&lt;color=#C97BFF&gt;4%额外法力值&lt;/color&gt;的法术强度。
 生命值低于30%时，获得一个护盾，吸收&lt;color=#1DA1FF&gt;{0:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）伤害&lt;/color&gt;，持续3秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +531,13 @@
   </si>
   <si>
     <t>回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得{0:F0}=（&lt;color=#FF6161&gt;10%最大法力值&lt;/color&gt;）攻击力。
+普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
+技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,22 +904,22 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>58</v>
@@ -931,28 +931,28 @@
         <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,10 +1023,10 @@
         <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1082,16 +1082,16 @@
         <v>83</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -1292,7 +1292,7 @@
         <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>80</v>
@@ -1307,13 +1307,13 @@
         <v>85</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,16 +1321,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>90</v>
@@ -1339,34 +1339,34 @@
         <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1417,10 +1417,10 @@
         <v>89</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54C2F5-1289-4D1A-9A7F-FB2AA8E9A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462967D-2954-4533-A6B7-F80F73042759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,11 +262,6 @@
   </si>
   <si>
     <t>{"attackDamage":40,"maxMagicPoint":600,"abilityHaste":15}</t>
-  </si>
-  <si>
-    <t>获得相当于&lt;color=#FF6161&gt;13%额外法力值&lt;/color&gt;的攻击力。
-在击杀50个敌人后，这件装备会转变为魔切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MPBoost</t>
@@ -538,6 +533,11 @@
 普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
 技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外法力值&lt;/color&gt;）攻击力。
+在击杀50个敌人后，这件装备会转变为魔切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,22 +904,22 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>58</v>
@@ -928,31 +928,31 @@
         <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,31 +1002,31 @@
         <v>61</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1070,28 +1070,28 @@
         <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -1289,31 +1289,31 @@
         <v>62</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="T6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,52 +1321,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,28 +1399,28 @@
         <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,19 +1610,19 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462967D-2954-4533-A6B7-F80F73042759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B59EFB-6A4A-4167-8E77-201636481894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,11 +227,6 @@
     <t>{"abilityPower":55,"maxMagicPoint":600,"abilityHaste":25}</t>
   </si>
   <si>
-    <t>获得相当于&lt;color=#C97BFF&gt;2%额外法力值&lt;/color&gt;的法术强度。
-在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敬畏</t>
   </si>
   <si>
@@ -351,11 +346,6 @@
   </si>
   <si>
     <t>伤害型技能会消耗6层弹丸充能来对目标造成额外{0:F0}=（80+5%法术强度+6%额外攻击力）的伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得相当于&lt;color=#C97BFF&gt;4%额外法力值&lt;/color&gt;的法术强度。
-生命值低于30%时，获得一个护盾，吸收&lt;color=#1DA1FF&gt;{0:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）伤害&lt;/color&gt;，持续3秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,6 +528,16 @@
   <si>
     <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外法力值&lt;/color&gt;）攻击力。
 在击杀50个敌人后，这件装备会转变为魔切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大法力值&lt;/color&gt;）法术强度。
+在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
+生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,55 +904,55 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -996,37 +996,37 @@
         <v>52</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1070,28 +1070,28 @@
         <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -1283,37 +1283,37 @@
         <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="T6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,52 +1321,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1390,42 +1390,42 @@
         <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,19 +1610,19 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B59EFB-6A4A-4167-8E77-201636481894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDCC32-2BFA-40F9-A7AB-19C8E3AA81CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,14 +341,6 @@
     <t>风暴掠袭</t>
   </si>
   <si>
-    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，持续3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害型技能会消耗6层弹丸充能来对目标造成额外{0:F0}=（80+5%法术强度+6%额外攻击力）的伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巫妖之祸</t>
   </si>
   <si>
@@ -507,11 +499,6 @@
   </si>
   <si>
     <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的终极技能获得10%额外伤害
-终极技能命中时，在脚下生成灼烧区域，造成&lt;color=#00D8FF&gt;{0:F0}=（115+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,13 +518,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
+生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大法力值&lt;/color&gt;）法术强度。
 在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
-生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
+    <t>你的终极技能额外10%魔法伤害
+终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成{0:F0}=（80+5%法术强度+6%额外攻击力）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,22 +904,22 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>57</v>
@@ -931,28 +931,28 @@
         <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,10 +1023,10 @@
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1082,16 +1082,16 @@
         <v>81</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,19 +1259,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -1292,7 +1292,7 @@
         <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>78</v>
@@ -1307,13 +1307,13 @@
         <v>83</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,52 +1321,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1417,10 +1417,10 @@
         <v>87</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>63</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDCC32-2BFA-40F9-A7AB-19C8E3AA81CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0EAF16-C866-4860-AEED-887D04152CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>{"abilityPower":60,"maxMagicPoint":600,"abilityHaste":20}</t>
   </si>
   <si>
-    <t>邪焰</t>
-  </si>
-  <si>
     <t>大天使之杖</t>
   </si>
   <si>
@@ -503,6 +500,38 @@
   </si>
   <si>
     <t>回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外法力值&lt;/color&gt;）攻击力。
+在击杀50个敌人后，这件装备会转变为魔切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
+生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大法力值&lt;/color&gt;）法术强度。
+在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能额外10%魔法伤害
+终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成{0:F0}=（80+5%法术强度+6%额外攻击力）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,34 +539,6 @@
 普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
 技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外法力值&lt;/color&gt;）攻击力。
-在击杀50个敌人后，这件装备会转变为魔切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
-生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大法力值&lt;/color&gt;）法术强度。
-在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的终极技能额外10%魔法伤害
-终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成{0:F0}=（80+5%法术强度+6%额外攻击力）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -895,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -904,55 +905,55 @@
         <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -990,43 +991,43 @@
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>35</v>
@@ -1058,40 +1059,40 @@
         <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,61 +1260,61 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="T6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,52 +1322,52 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,45 +1388,45 @@
         <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -1502,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,19 +1611,19 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0EAF16-C866-4860-AEED-887D04152CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF6C62-D120-432C-81AC-AA6A85F010CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,264 @@
 普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
 技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starsprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星界驱驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升与技能触发加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
+  </si>
+  <si>
+    <t>咒舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人释放技能造成魔法伤害或真实伤害时会提供60移动速度，持续4秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Void_Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供高额法术穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicPenetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabadons_Deathcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭世者的死亡之帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高法术强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法乐章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的总法术强度提升30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放血者的诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术穿透与叠层削抗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350,"abilityHaste":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶劣暴行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riftmaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂隙制造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供全能吸血并强化持续作战能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空腐蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用技能对敌人造成魔法伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得相当于你2%最大生命值的法术强度。
+在使用技能对敌人造成伤害时，每次都能叠加额外造成2%真实伤害，最多叠加至8%，持续6秒。在最大强度时，获得15%全能吸血。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高法穿并提供团队治疗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞莱的冰晶节杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rylai_Crystal_Scepter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供稳定的技能减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"percentageMagicPenetration":0.3,"abilityHaste":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptbloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死中焕生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当一个敌人被你杀死时，为你治疗{0:F0}=（450+50%法术强度）生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合穿透与巨人克制效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"percentageMovementSpeed":0.05,"percentageAttackPenetration":0.22,"percentageMagicPenetration":0.3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最大生命值高于你的敌方英雄额外造成至多15%真实伤害。当最大生命差异大于2500时，即可达到最大伤害值提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruinous_Ritual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏仪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":50,"abilityHaste":15,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火与破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liandrys_Torment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰德里的苦楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":50,"maxHealthPoint":250}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinsoos_Rageblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼索的狂暴之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附伤增幅器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":20,"abilityPower":25,"attackSpeed":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能伤害敌人会灼烧敌人，每秒造成其0.5%最大生命值的魔法伤害，最多叠加至6%最大生命值的魔法伤害，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率。
+根据你的暴击率会有概率使你的技能额外造成{0:F0}=（70+15%法术强度）额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带{0:F0} =（10+3%法术强度 + 6%攻击力）魔法伤害的攻击特效。
+普攻提供8%攻击速度，最多叠加至32%攻击速度，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="AC3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -882,7 +1140,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +1213,41 @@
       <c r="X1" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1029,8 +1320,41 @@
       <c r="X2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1418,41 @@
       <c r="X3" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1168,8 +1525,41 @@
       <c r="X4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,8 +1632,41 @@
       <c r="X5" s="1">
         <v>2500</v>
       </c>
+      <c r="Y5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1316,8 +1739,41 @@
       <c r="X6" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,8 +1825,38 @@
       <c r="X7" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="Y7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1423,8 +1909,38 @@
       <c r="X8" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1497,8 +2013,41 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +2055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +2063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1587,8 +2136,41 @@
       <c r="X12" s="1">
         <v>0</v>
       </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1624,6 +2206,15 @@
       </c>
       <c r="W13" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF6C62-D120-432C-81AC-AA6A85F010CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77848DBB-8817-4868-A876-BC561EF322A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liandry_sTorment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Archangel_sStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使你的总法术强度提升30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放血者的诅咒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,11 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得相当于你2%最大生命值的法术强度。
-在使用技能对敌人造成伤害时，每次都能叠加额外造成2%真实伤害，最多叠加至8%，持续6秒。在最大强度时，获得15%全能吸血。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高法穿并提供团队治疗效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每当一个敌人被你杀死时，为你治疗{0:F0}=（450+50%法术强度）生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"abilityPower":60,"maxHealthPoint":350}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,17 +769,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用技能伤害敌人会灼烧敌人，每秒造成其0.5%最大生命值的魔法伤害，最多叠加至6%最大生命值的魔法伤害，持续3秒。</t>
+    <t>BlackFireTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大生命值的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大生命值的魔法伤害&lt;/color&gt;，持续6秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率。
-根据你的暴击率会有概率使你的技能额外造成{0:F0}=（70+15%法术强度）额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击附带{0:F0} =（10+3%法术强度 + 6%攻击力）魔法伤害的攻击特效。
-普攻提供8%攻击速度，最多叠加至32%攻击速度，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
+根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%法术强度）额外伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（450+50%法术强度）生命值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#C97BFF&gt;相当于你2%最大生命值的法术强度&lt;/color&gt;。
+在使用技能对敌人造成伤害时，每次都能叠加额外造成2%真实伤害，最多叠加至8%，持续6秒。在最大强度时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的&lt;color=#C97BFF&gt;总法术强度提升30%&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%法术强度+6%攻击力）魔法伤害&lt;/color&gt;的攻击特效。
+普攻提供&lt;color=#E0C300&gt;8%攻击速度&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%攻击速度&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="V6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,13 +1172,13 @@
         <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>56</v>
@@ -1190,61 +1190,61 @@
         <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,37 +1321,37 @@
         <v>92</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,49 +1407,49 @@
         <v>80</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,7 +1689,7 @@
         <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
@@ -1716,7 +1716,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>77</v>
@@ -1731,7 +1731,7 @@
         <v>82</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>89</v>
@@ -1740,37 +1740,37 @@
         <v>93</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,79 +1778,79 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>200</v>
@@ -1874,7 +1874,7 @@
         <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>53</v>
@@ -1910,34 +1910,34 @@
         <v>94</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AD8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,13 +2208,13 @@
         <v>91</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77848DBB-8817-4868-A876-BC561EF322A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0560367E-A0EC-409B-9FCE-9607DAAED776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Void_Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空之杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +793,10 @@
   <si>
     <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%法术强度+6%攻击力）魔法伤害&lt;/color&gt;的攻击特效。
 普攻提供&lt;color=#E0C300&gt;8%攻击速度&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%攻击速度&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void_Staff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>102</v>
@@ -1217,34 +1217,34 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1324,34 +1324,34 @@
         <v>137</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,34 +1422,34 @@
         <v>138</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,34 +1743,34 @@
         <v>139</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,31 +1829,31 @@
         <v>141</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,31 +1913,31 @@
         <v>140</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,13 +2208,13 @@
         <v>91</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0560367E-A0EC-409B-9FCE-9607DAAED776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC39EC73-DAF4-45AE-9D64-16DE38D00A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动速度提升与技能触发加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
   </si>
   <si>
@@ -557,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对敌人释放技能造成魔法伤害或真实伤害时会提供60移动速度，持续4秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空之杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法术穿透与叠层削抗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"abilityPower":60,"maxHealthPoint":350,"abilityHaste":15}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +674,6 @@
   </si>
   <si>
     <t>困惑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合穿透与巨人克制效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -782,11 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得&lt;color=#C97BFF&gt;相当于你2%最大生命值的法术强度&lt;/color&gt;。
-在使用技能对敌人造成伤害时，每次都能叠加额外造成2%真实伤害，最多叠加至8%，持续6秒。在最大强度时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使你的&lt;color=#C97BFF&gt;总法术强度提升30%&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +776,27 @@
   </si>
   <si>
     <t>Void_Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#C97BFF&gt;相当于你2%最大生命值的法术强度&lt;/color&gt;。
+在使用技能对敌人造成伤害时，每次都能叠加提升&lt;color=#C97BFF&gt;2%总法术强度&lt;/color&gt;，最多叠加至&lt;color=#C97BFF&gt;10%总法术强度&lt;/color&gt;，持续6秒。在最大强度时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人释放技能造成伤害会提供60移动速度，持续4秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合穿透与巨人杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠层削减法术抗性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>102</v>
@@ -1217,34 +1217,34 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1324,34 +1324,34 @@
         <v>137</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1419,37 +1419,37 @@
         <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,37 +1740,37 @@
         <v>93</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,34 +1826,34 @@
         <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AH7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,34 +1910,34 @@
         <v>94</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>91</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC39EC73-DAF4-45AE-9D64-16DE38D00A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262D0D4-2EE3-44F3-AEB2-342FA82A7AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供全能吸血并强化持续作战能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空腐蚀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,19 +617,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高法穿并提供团队治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑞莱的冰晶节杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rylai_Crystal_Scepter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供稳定的技能减速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -797,6 +785,18 @@
   </si>
   <si>
     <t>叠层削减法术抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供技能减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术穿透和杀敌治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能吸血和法术强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>102</v>
@@ -1217,7 +1217,7 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>144</v>
@@ -1229,22 +1229,22 @@
         <v>152</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,22 +1336,22 @@
         <v>153</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>141</v>
@@ -1428,28 +1428,28 @@
         <v>146</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="AD3" s="1" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>142</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>150</v>
@@ -1755,22 +1755,22 @@
         <v>150</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,34 +1826,34 @@
         <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="AD7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,25 +1919,25 @@
         <v>151</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="AF8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262D0D4-2EE3-44F3-AEB2-342FA82A7AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE23E43-4FB2-4DC4-8292-2A98A61A932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（450+50%法术强度）生命值&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使你的&lt;color=#C97BFF&gt;总法术强度提升30%&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +793,10 @@
   </si>
   <si>
     <t>全能吸血和法术强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%法术强度）生命值&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1217,7 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>144</v>
@@ -1419,7 +1419,7 @@
         <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>141</v>
@@ -1428,19 +1428,19 @@
         <v>146</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>173</v>
@@ -1826,19 +1826,19 @@
         <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>155</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>164</v>
@@ -1853,7 +1853,7 @@
         <v>187</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE23E43-4FB2-4DC4-8292-2A98A61A932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF84811-B446-4190-B697-9761C0E14777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="201">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="AB7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2216,6 +2216,9 @@
       <c r="AD13" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="AF13" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF84811-B446-4190-B697-9761C0E14777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC1138-67F4-48F4-A588-ACFF14AB20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用技能对敌人造成魔法伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑞莱的冰晶节杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +793,10 @@
   </si>
   <si>
     <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%法术强度）生命值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="Y3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>102</v>
@@ -1217,7 +1217,7 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>144</v>
@@ -1229,22 +1229,22 @@
         <v>152</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,22 +1336,22 @@
         <v>153</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>141</v>
@@ -1428,28 +1428,28 @@
         <v>146</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>142</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>150</v>
@@ -1755,22 +1755,22 @@
         <v>150</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1826,34 +1826,34 @@
         <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1922,22 +1922,22 @@
         <v>154</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC1138-67F4-48F4-A588-ACFF14AB20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5396E-EE4C-42E2-BD4F-AA8E6977B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,11 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率。
-根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%法术强度）额外伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使你的&lt;color=#C97BFF&gt;总法术强度提升30%&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +792,11 @@
   </si>
   <si>
     <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
+根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%法术强度）额外伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1217,7 @@
         <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>144</v>
@@ -1419,7 +1419,7 @@
         <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>141</v>
@@ -1428,19 +1428,19 @@
         <v>146</v>
       </c>
       <c r="AB3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>172</v>
@@ -1826,19 +1826,19 @@
         <v>113</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>163</v>
@@ -1847,13 +1847,13 @@
         <v>169</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>186</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5396E-EE4C-42E2-BD4F-AA8E6977B1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1E3A4-FD71-48D7-8642-1E9D14593F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,9 +140,6 @@
     <t>守护者号角</t>
   </si>
   <si>
-    <t>不屈不挠</t>
-  </si>
-  <si>
     <t>Starter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,14 +367,6 @@
   </si>
   <si>
     <t>Guardian_sDagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"maxHealthPoint":300, "percentageHealthRegeneration" : 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量与回复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,10 +473,6 @@
   <si>
     <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
 承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的法力值&lt;/color&gt;；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;消耗法力值25%的生命值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定格挡来自英雄的攻击和技能的12点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,11 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得&lt;color=#C97BFF&gt;相当于你2%最大生命值的法术强度&lt;/color&gt;。
-在使用技能对敌人造成伤害时，每次都能叠加提升&lt;color=#C97BFF&gt;2%总法术强度&lt;/color&gt;，最多叠加至&lt;color=#C97BFF&gt;10%总法术强度&lt;/color&gt;，持续6秒。在最大强度时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对敌人释放技能造成伤害会提供60移动速度，持续4秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,6 +777,19 @@
   <si>
     <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
 根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%法术强度）额外伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"maxHealthPoint":500, "percentageHealthRegeneration" : 10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量和巨额回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#C97BFF&gt;{0:F0}=（2%最大生命值）法术强度&lt;/color&gt;。
+使用技能造成伤害时，提升&lt;color=#C97BFF&gt;2%法术强度&lt;/color&gt;，最多叠加5层，持续6秒。在最大层数时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1151,100 +1144,100 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1270,88 +1263,88 @@
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AE2" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,88 +1361,88 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="AD3" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,106 +1450,106 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1683,94 +1676,94 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="T6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AA6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AD6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="AF6" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,82 +1771,79 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1864,85 +1854,83 @@
         <v>14</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="AC8" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AE8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="AG8" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2052,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2060,12 +2048,12 @@
         <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2193,31 +2181,31 @@
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA1E3A4-FD71-48D7-8642-1E9D14593F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13070814-73AA-4E8F-B6DD-25DF5D562036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%法强）魔法伤害&lt;/color&gt;的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,351 +442,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能伤害会对生命值低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大生命值&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% 法术强度）魔法伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施放技能后5秒内，下次攻击会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础攻击&lt;/color&gt;+&lt;color=#C97BFF&gt;66%法术强度&lt;/color&gt;）魔法伤害的攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当你命中1000码外的英雄时，造成额外的20%真实伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%法术强度&lt;/color&gt;）魔法伤害&lt;/color&gt;。
+    <t>{"abilityPower":60,"maxHealthPoint":350,"maxMagicPoint":300}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starsprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星界驱驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
+  </si>
+  <si>
+    <t>咒舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供高额法术穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicPenetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabadons_Deathcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭世者的死亡之帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高法术强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法乐章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放血者的诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350,"abilityHaste":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶劣暴行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riftmaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂隙制造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空腐蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞莱的冰晶节杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rylai_Crystal_Scepter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜕生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"percentageMagicPenetration":0.3,"abilityHaste":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptbloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死中焕生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxHealthPoint":350}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cryptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"percentageMovementSpeed":0.05,"percentageAttackPenetration":0.22,"percentageMagicPenetration":0.3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruinous_Ritual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏仪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":50,"abilityHaste":15,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火与破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liandrys_Torment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰德里的苦楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":50,"maxHealthPoint":250}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinsoos_Rageblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼索的狂暴之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附伤增幅器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":20,"abilityPower":25,"attackSpeed":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackFireTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Void_Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人释放技能造成伤害会提供60移动速度，持续4秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合穿透与巨人杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠层削减法术抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供技能减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术穿透和杀敌治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能吸血和法术强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"maxHealthPoint":500, "percentageHealthRegeneration" : 10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量和巨额回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（2%&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+使用技能造成伤害时，提升&lt;color=#C97BFF&gt;2%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;，最多叠加5层，持续6秒。在最大层数时，获得&lt;color=#D14BFF&gt;15%&lt;sprite="Attributes" name="OmniVampIcon"&gt;&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升30%&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
+根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）额外伤害&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害&lt;/color&gt;。
 该装备的位移可以越过墙体。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":60,"maxHealthPoint":350,"maxMagicPoint":300}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50法术强度&lt;/color&gt;、&lt;color=#0ACD02&gt;300生命值&lt;/color&gt;、&lt;color=#1DA1FF&gt;400法力值&lt;/color&gt;，并且你的等级提升1级。
-承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的法力值&lt;/color&gt;；施放一个技能时，你会根据消耗的法力值回复自身相当于&lt;color=#0ACD02&gt;消耗法力值25%的生命值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复&lt;color=#0066FF&gt;35法力值&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外法力值&lt;/color&gt;）攻击力。
+  </si>
+  <si>
+    <t>回复&lt;color=#0066FF&gt;35&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。
 在击杀50个敌人后，这件装备会转变为魔切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大法力值&lt;/color&gt;）法术强度。
-生命值低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大法力值&lt;/color&gt;）生命值，持续3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;3%最大法力值&lt;/color&gt;）法术强度。
-在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的终极技能额外10%魔法伤害
-终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%法术强度）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%法术强度）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成{0:F0}=（80+5%法术强度+6%额外攻击力）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获得{0:F0}=（&lt;color=#FF6161&gt;10%最大法力值&lt;/color&gt;）攻击力。
-普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大法力值）物理伤害&lt;/color&gt;
-技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大法力值）物理伤害&lt;/color&gt;。
+  </si>
+  <si>
+    <t xml:space="preserve">获得{0:F0}=（&lt;color=#FF6161&gt;10%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。
+普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;）物理伤害&lt;/color&gt;
+技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;）物理伤害&lt;/color&gt;。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starsprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星界驱驰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
-  </si>
-  <si>
-    <t>咒舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空之杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供高额法术穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicPenetration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rabadons_Deathcap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭世者的死亡之帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高法术强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法乐章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放血者的诅咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CursedBlood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":60,"maxHealthPoint":350,"abilityHaste":15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶劣暴行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riftmaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裂隙制造者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空腐蚀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞莱的冰晶节杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rylai_Crystal_Scepter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜕生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":60,"percentageMagicPenetration":0.3,"abilityHaste":15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cryptbloom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死中焕生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":60,"maxHealthPoint":350}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凝霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cryptic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>困惑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":60,"percentageMovementSpeed":0.05,"percentageAttackPenetration":0.22,"percentageMagicPenetration":0.3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人杀手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对最大生命值高于你的敌方英雄额外造成至多15%真实伤害。当最大生命差异大于2500时，即可达到最大伤害值提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruinous_Ritual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁坏仪式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":50,"abilityHaste":15,"criticalRate":0.25}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒火与破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liandrys_Torment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰德里的苦楚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克克星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"abilityPower":50,"maxHealthPoint":250}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guinsoos_Rageblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼索的狂暴之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附伤增幅器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":20,"abilityPower":25,"attackSpeed":0.25}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附魔打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackFireTorch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大生命值的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大生命值的魔法伤害&lt;/color&gt;，持续6秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使你的&lt;color=#C97BFF&gt;总法术强度提升30%&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%法术强度+6%攻击力）魔法伤害&lt;/color&gt;的攻击特效。
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
 普攻提供&lt;color=#E0C300&gt;8%攻击速度&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%攻击速度&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void_Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人释放技能造成伤害会提供60移动速度，持续4秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合穿透与巨人杀手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叠层削减法术抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供技能减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术穿透和杀敌治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全能吸血和法术强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%法术强度）生命值&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
-根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%法术强度）额外伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"maxHealthPoint":500, "percentageHealthRegeneration" : 10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量和巨额回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;color=#C97BFF&gt;{0:F0}=（2%最大生命值）法术强度&lt;/color&gt;。
-使用技能造成伤害时，提升&lt;color=#C97BFF&gt;2%法术强度&lt;/color&gt;，最多叠加5层，持续6秒。在最大层数时，获得&lt;color=#D14BFF&gt;15%全能吸血&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
+  </si>
+  <si>
+    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能造成&lt;color=#C97BFF&gt;额外10%魔法伤害&lt;/color&gt;
+终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;，持续3秒。</t>
+  </si>
+  <si>
+    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;、&lt;color=#0ACD02&gt;300&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;、&lt;color=#1DA1FF&gt;400&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;，并且你的等级提升1级。
+承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;；施放一个技能时，你会根据消耗的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;回复自身相当于&lt;color=#0ACD02&gt;消耗&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;25%的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，持续6秒。</t>
+  </si>
+  <si>
+    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌方英雄额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="AE6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1149,7 @@
         <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>99</v>
@@ -1207,37 +1191,37 @@
         <v>108</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,37 +1298,37 @@
         <v>91</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -1400,49 +1384,49 @@
         <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>109</v>
@@ -1709,7 +1693,7 @@
         <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>76</v>
@@ -1724,7 +1708,7 @@
         <v>81</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>88</v>
@@ -1733,37 +1717,37 @@
         <v>92</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="AD6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AH6" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,79 +1755,79 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="AG7" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,7 +1846,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>52</v>
@@ -1898,34 +1882,34 @@
         <v>93</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="AI8" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,16 +2180,16 @@
         <v>90</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13070814-73AA-4E8F-B6DD-25DF5D562036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FCD987-B2F1-43E0-B807-0BD900DE657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使附近敌人的&lt;color=#FFE761&gt;总攻击速度&lt;/color&gt;降低30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邪焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,14 +650,6 @@
   </si>
   <si>
     <t>Void_Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人释放技能造成伤害会提供60移动速度，持续4秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,10 +722,6 @@
 </t>
   </si>
   <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
-普攻提供&lt;color=#E0C300&gt;8%攻击速度&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%攻击速度&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
-  </si>
-  <si>
     <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
   </si>
   <si>
@@ -775,6 +759,19 @@
   </si>
   <si>
     <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌方英雄额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
+  </si>
+  <si>
+    <t>使附近敌人的&lt;color=#FFE761&gt;总&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;降低30%。</t>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
+普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;提升</t>
+  </si>
+  <si>
+    <t>对敌人释放技能造成伤害会提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续4秒。</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1146,7 @@
         <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>99</v>
@@ -1191,37 +1188,37 @@
         <v>108</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,37 +1295,37 @@
         <v>91</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1345,7 +1342,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>34</v>
@@ -1396,37 +1393,37 @@
         <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AF3" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1663,7 +1660,7 @@
         <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>109</v>
@@ -1717,37 +1714,37 @@
         <v>92</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,79 +1752,79 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1846,7 +1843,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>52</v>
@@ -1882,34 +1879,34 @@
         <v>93</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2180,16 +2177,16 @@
         <v>90</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FCD987-B2F1-43E0-B807-0BD900DE657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F74A75-6FF7-433A-8375-7EFCFAC04F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,10 +768,11 @@
 普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
   </si>
   <si>
-    <t>&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;提升</t>
-  </si>
-  <si>
     <t>对敌人释放技能造成伤害会提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续4秒。</t>
+  </si>
+  <si>
+    <t>移动速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1394,7 @@
         <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>122</v>
@@ -1797,7 +1798,7 @@
         <v>181</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>176</v>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F74A75-6FF7-433A-8375-7EFCFAC04F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E04DC-ADB1-4FE5-AF4E-0D22E40039C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E04DC-ADB1-4FE5-AF4E-0D22E40039C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF4F90-2554-4E0B-9160-AA31E9808AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,10 +725,6 @@
     <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
   </si>
   <si>
-    <t>每6秒获得1层充能，技能会消耗最多6层充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害。每多一层弹丸，就会对主要目标重复造成一次&lt;color=#00D8FF&gt;35%&lt;/color&gt;效果的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的终极技能造成&lt;color=#C97BFF&gt;额外10%魔法伤害&lt;/color&gt;
 终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,10 +738,6 @@
 &lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;，持续3秒。</t>
   </si>
   <si>
-    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;、&lt;color=#0ACD02&gt;300&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;、&lt;color=#1DA1FF&gt;400&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;，并且你的等级提升1级。
-承受伤害时，你会回复相当于&lt;color=#1DA1FF&gt;伤害值15%的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;；施放一个技能时，你会根据消耗的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;回复自身相当于&lt;color=#0ACD02&gt;消耗&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;25%的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
   </si>
   <si>
@@ -772,6 +764,15 @@
   </si>
   <si>
     <t>移动速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;、&lt;color=#0ACD02&gt;300&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;、&lt;color=#1DA1FF&gt;400&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;，并且使你升1级。
+承受伤害时，你会回复&lt;color=#1DA1FF&gt;伤害值15%的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;；施放一个技能时，你会根据消耗的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;回复&lt;color=#0ACD02&gt;消耗&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;25%的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6秒获得1层充能，至多6层，技能命中会消耗所有充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）×（0.65+0.35×充能层数）的魔法伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1395,7 @@
         <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>122</v>
@@ -1756,19 +1757,19 @@
         <v>179</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>182</v>
@@ -1777,19 +1778,19 @@
         <v>183</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>184</v>
@@ -1798,7 +1799,7 @@
         <v>181</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>176</v>
@@ -1810,22 +1811,22 @@
         <v>175</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>177</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABF4F90-2554-4E0B-9160-AA31E9808AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98906EF6-0854-43F7-9716-B26D62BD6254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,9 +741,6 @@
     <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
   </si>
   <si>
-    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。</t>
-  </si>
-  <si>
     <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;。</t>
   </si>
   <si>
@@ -773,6 +770,10 @@
   </si>
   <si>
     <t>每6秒获得1层充能，至多6层，技能命中会消耗所有充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）×（0.65+0.35×充能层数）的魔法伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="S6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1395,7 +1396,7 @@
         <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>122</v>
@@ -1757,7 +1758,7 @@
         <v>179</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>185</v>
@@ -1778,10 +1779,10 @@
         <v>183</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>114</v>
@@ -1790,7 +1791,7 @@
         <v>188</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>184</v>
@@ -1799,7 +1800,7 @@
         <v>181</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>176</v>
@@ -1811,22 +1812,22 @@
         <v>175</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>144</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>177</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98906EF6-0854-43F7-9716-B26D62BD6254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7EC3D-A75F-40DE-A0A7-9ED7E82B5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="222">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +774,98 @@
   </si>
   <si>
     <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级战士装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一次半随机的选择，用来获得一个永久属性加成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动-消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件传说级战士装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级射手装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryFighterEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryShooterEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级刺客装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryAssassinEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryWizardEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级法师装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级坦克装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryTankEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱彩装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrismaticEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件传说级射手装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件传说级刺客装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件传说级法师装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件传说级坦克装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件棱彩级装备装备。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1209,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,91 +1232,112 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1247,91 +1360,112 @@
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,89 +1481,89 @@
       <c r="G3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1452,25 +1586,25 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>35</v>
@@ -1535,8 +1669,29 @@
       <c r="AI4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AJ4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1559,25 +1714,25 @@
         <v>500</v>
       </c>
       <c r="H5" s="1">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="I5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N5" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="O5" s="1">
         <v>2500</v>
@@ -1642,8 +1797,29 @@
       <c r="AI5" s="1">
         <v>2500</v>
       </c>
+      <c r="AJ5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1665,172 +1841,194 @@
       <c r="G6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="I7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1839,80 +2037,102 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1938,104 +2158,127 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>6</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>45</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
       <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
         <v>10</v>
       </c>
-      <c r="W9" s="1">
+      <c r="AD9" s="1">
         <v>3</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
         <v>5</v>
       </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="AF10"/>
     </row>
-    <row r="11" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AF11"/>
     </row>
-    <row r="12" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2088,29 +2331,29 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>25</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
       <c r="Z12" s="1">
         <v>0</v>
       </c>
@@ -2141,8 +2384,29 @@
       <c r="AI12" s="1">
         <v>0</v>
       </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2164,33 +2428,39 @@
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="Y13" s="1"/>
+      <c r="AD13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AF13"/>
+      <c r="AG13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AI13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="14" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14"/>
+      <c r="Y14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7EC3D-A75F-40DE-A0A7-9ED7E82B5B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20367EAC-1EA6-45D3-BCCA-7AB05665C0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>{"attackDamage":40,"maxMagicPoint":1000,"abilityHaste":15}</t>
-  </si>
-  <si>
-    <t>{"attackDamage":40,"maxMagicPoint":600,"abilityHaste":15}</t>
   </si>
   <si>
     <t>MPBoost</t>
@@ -866,6 +863,61 @@
   </si>
   <si>
     <t>自动开启一个半随机的选择，以选取一件棱彩级装备装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_usageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Wizard"]</t>
+  </si>
+  <si>
+    <t>["Wizard"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Fighter"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Wizard","Fighter"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Assasin"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Shooter"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Tank"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["All"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若在未购买装备的情况下购买10次及以上属性锻造器，则有机会获得碎片增幅碎片以百分比提升所有属性碎片属性。购买的越多，越容易获得更高质量的增幅碎片。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动-锻体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Fighter","Assassin","Shooter"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Wizard","Tank"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":40,"maxMagicPoint":600,"abilityHaste":15}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,8 +1251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1278,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1232,43 +1287,43 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>55</v>
@@ -1277,64 +1332,64 @@
         <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1360,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>33</v>
@@ -1405,64 +1460,64 @@
         <v>58</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1479,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>34</v>
@@ -1506,61 +1561,61 @@
         <v>48</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AM3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,25 +1641,25 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>35</v>
@@ -1836,19 +1891,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>46</v>
@@ -1860,70 +1915,70 @@
         <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="AA6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AC6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,101 +1986,101 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="U7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="AP7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2038,25 +2093,25 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>40</v>
@@ -2065,7 +2120,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>52</v>
@@ -2077,59 +2132,59 @@
         <v>52</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2264,8 +2319,11 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="Y10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -2273,8 +2331,11 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="Y11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -2429,38 +2490,162 @@
         <v>13</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X14"/>
-      <c r="Y14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DEFB53-A163-41A2-AB8A-9EBA76E560BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView xWindow="4545" yWindow="3690" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -816,44 +822,57 @@
     <t>_usageType</t>
   </si>
   <si>
-    <t>["Wizard"]</t>
-  </si>
-  <si>
-    <t>["Fighter"]</t>
-  </si>
-  <si>
-    <t>["Wizard","Fighter"]</t>
-  </si>
-  <si>
-    <t>["Assasin"]</t>
-  </si>
-  <si>
-    <t>["Shooter"]</t>
-  </si>
-  <si>
-    <t>["Tank"]</t>
-  </si>
-  <si>
-    <t>["All"]</t>
-  </si>
-  <si>
-    <t>["Fighter","Assassin","Shooter"]</t>
-  </si>
-  <si>
-    <t>["Wizard","Tank"]</t>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assasin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Fighter,Wizard,Tank,Assassin,Shooter</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard,Tank</t>
+  </si>
+  <si>
+    <t>Fighter,Assassin,Shooter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,352 +881,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1215,251 +912,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1469,65 +924,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1785,29 +1196,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AR10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV6" sqref="AV6"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="24" width="32.375" style="1"/>
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:47">
+    <row r="1" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:47">
+    <row r="2" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -2093,7 +1503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:47">
+    <row r="3" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -2206,7 +1616,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:47">
+    <row r="4" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -2349,7 +1759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:47">
+    <row r="5" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -2492,7 +1902,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" ht="273" customHeight="1" spans="1:47">
+    <row r="6" spans="1:47" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -2614,7 +2024,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" ht="270" customHeight="1" spans="1:47">
+    <row r="7" spans="1:47" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -2731,7 +2141,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" ht="18.6" customHeight="1" spans="1:47">
+    <row r="8" spans="1:47" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>209</v>
       </c>
@@ -2834,7 +2244,7 @@
       <c r="AP8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>235</v>
       </c>
       <c r="AR8" s="1" t="s">
@@ -2850,7 +2260,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:47">
+    <row r="9" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>240</v>
       </c>
@@ -2993,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="270.6" customHeight="1" spans="1:47">
+    <row r="10" spans="1:47" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>241</v>
       </c>
@@ -3011,7 +2421,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:47">
+    <row r="11" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>246</v>
       </c>
@@ -3029,7 +2439,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:47">
+    <row r="12" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>251</v>
       </c>
@@ -3172,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:47">
+    <row r="13" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>252</v>
       </c>
@@ -3224,53 +2634,53 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:47">
+    <row r="14" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>263</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="P14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>258</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -3285,14 +2695,14 @@
       <c r="T14" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>265</v>
+      <c r="U14" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>258</v>
@@ -3328,7 +2738,7 @@
         <v>258</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>258</v>
@@ -3349,11 +2759,11 @@
         <v>258</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DEFB53-A163-41A2-AB8A-9EBA76E560BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1D1CA-A313-4E27-8453-8402F05B333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3690" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Youmuu_sGhostblade</t>
   </si>
   <si>
-    <t>Serpent_sFang</t>
-  </si>
-  <si>
     <t>VoltaicCyclosword</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>幽梦之灵</t>
   </si>
   <si>
-    <t>巨蛇之牙</t>
-  </si>
-  <si>
     <t>电震涌流剑</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>追击</t>
   </si>
   <si>
-    <t>护盾克星</t>
-  </si>
-  <si>
     <t>爆发减速</t>
   </si>
   <si>
@@ -534,9 +525,6 @@
   </si>
   <si>
     <t>{"attackDamage":55,"attackPenetration":22,"movementSpeed":0.04}</t>
-  </si>
-  <si>
-    <t>{"attackDamage":55,"attackPenetration":19}</t>
   </si>
   <si>
     <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
@@ -595,277 +583,330 @@
   <si>
     <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。
 在击杀50个敌人后，这件装备会转变为魔切</t>
+  </si>
+  <si>
+    <t>使附近敌人的&lt;color=#FFE761&gt;总&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;降低30%。</t>
+  </si>
+  <si>
+    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;、&lt;color=#0ACD02&gt;300&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;、&lt;color=#1DA1FF&gt;400&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;，并且使你升1级。
+承受伤害时，你会回复&lt;color=#1DA1FF&gt;伤害值15%的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;；施放一个技能时，你会根据消耗的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;回复&lt;color=#0ACD02&gt;消耗&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;25%的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>当你命中1000码外的英雄时，造成额外的20%真实伤害</t>
+  </si>
+  <si>
+    <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。</t>
+  </si>
+  <si>
+    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。</t>
+  </si>
+  <si>
+    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升30%&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
+  </si>
+  <si>
+    <t>获得&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（2%&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+使用技能造成伤害时，提升&lt;color=#C97BFF&gt;2%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;，最多叠加5层，持续6秒。在最大层数时，获得&lt;color=#D14BFF&gt;15%&lt;sprite="Attributes" name="OmniVampIcon"&gt;&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
+  </si>
+  <si>
+    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌方英雄额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
+  </si>
+  <si>
+    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
+根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）额外伤害&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，持续6秒。</t>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
+普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
+  </si>
+  <si>
+    <t>_passiveSkillName</t>
+  </si>
+  <si>
+    <t>复原力</t>
+  </si>
+  <si>
+    <t>主动-消耗</t>
+  </si>
+  <si>
+    <t>开火</t>
+  </si>
+  <si>
+    <t>蔑视与憎恶</t>
+  </si>
+  <si>
+    <t>邪焰</t>
+  </si>
+  <si>
+    <t>敬畏</t>
+  </si>
+  <si>
+    <t>救主灵刃</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>凛冬之扰</t>
+  </si>
+  <si>
+    <t>时光永恒</t>
+  </si>
+  <si>
+    <t>高能射击</t>
+  </si>
+  <si>
+    <t>余烬绽放</t>
+  </si>
+  <si>
+    <t>风暴掠袭</t>
+  </si>
+  <si>
+    <t>咒刃</t>
+  </si>
+  <si>
+    <t>艾卡西亚之咬</t>
+  </si>
+  <si>
+    <t>咒舞</t>
+  </si>
+  <si>
+    <t>魔法乐章</t>
+  </si>
+  <si>
+    <t>恶劣暴行</t>
+  </si>
+  <si>
+    <t>虚空腐蚀</t>
+  </si>
+  <si>
+    <t>死中焕生</t>
+  </si>
+  <si>
+    <t>凝霜</t>
+  </si>
+  <si>
+    <t>巨人杀手</t>
+  </si>
+  <si>
+    <t>怒火与破坏</t>
+  </si>
+  <si>
+    <t>苦难</t>
+  </si>
+  <si>
+    <t>附魔打击</t>
+  </si>
+  <si>
+    <t>鬼影萦绕</t>
+  </si>
+  <si>
+    <t>激电与苍穹</t>
+  </si>
+  <si>
+    <t>顺劈</t>
+  </si>
+  <si>
+    <t>_passiveSkillCD</t>
+  </si>
+  <si>
+    <t>_activeSkillDescription</t>
+  </si>
+  <si>
+    <t>若在未购买装备的情况下购买10次及以上属性锻造器，则有机会获得碎片增幅碎片以百分比提升所有属性碎片属性。购买的越多，越容易获得更高质量的增幅碎片。</t>
+  </si>
+  <si>
+    <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害&lt;/color&gt;。
+该装备的位移可以越过墙体。</t>
+  </si>
+  <si>
+    <t>_activeSkillName</t>
+  </si>
+  <si>
+    <t>被动-锻体</t>
+  </si>
+  <si>
+    <t>超音速</t>
+  </si>
+  <si>
+    <t>鬼步化身</t>
+  </si>
+  <si>
+    <t>邪斩</t>
+  </si>
+  <si>
+    <t>_activeSkillCD</t>
+  </si>
+  <si>
+    <t>_uniqueEffect</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>MPBoost</t>
+  </si>
+  <si>
+    <t>CursedBlade</t>
+  </si>
+  <si>
+    <t>MagicPenetration</t>
+  </si>
+  <si>
+    <t>_usageType</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assasin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Fighter,Wizard,Tank,Assassin,Shooter</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard,Tank</t>
+  </si>
+  <si>
+    <t>Fighter,Assassin,Shooter</t>
+  </si>
+  <si>
+    <t>Wizard,Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人释放技能造成伤害会提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续4秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供30%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;和幽灵状态，持续6秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近的敌人造成{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">获得{0:F0}=（&lt;color=#FF6161&gt;10%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。
 普攻造成额外&lt;color=#FF6A6A&gt;{1:F0}=（5+2%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;）物理伤害&lt;/color&gt;
 技能造成额外&lt;color=#FF6A6A&gt;{2:F0}=（20+10%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;）物理伤害&lt;/color&gt;。
 </t>
-  </si>
-  <si>
-    <t>使附近敌人的&lt;color=#FFE761&gt;总&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;降低30%。</t>
-  </si>
-  <si>
-    <t>在击杀50个敌人后，这个装备获得额外的&lt;color=#C97BFF&gt;50&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;、&lt;color=#0ACD02&gt;300&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;、&lt;color=#1DA1FF&gt;400&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;，并且使你升1级。
-承受伤害时，你会回复&lt;color=#1DA1FF&gt;伤害值15%的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;；施放一个技能时，你会根据消耗的&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;回复&lt;color=#0ACD02&gt;消耗&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;25%的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>当你命中1000码外的英雄时，造成额外的20%真实伤害</t>
-  </si>
-  <si>
-    <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
-  </si>
-  <si>
-    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。</t>
-  </si>
-  <si>
-    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
-  </si>
-  <si>
-    <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。</t>
-  </si>
-  <si>
-    <t>对敌人释放技能造成伤害会提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续4秒。</t>
-  </si>
-  <si>
-    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升30%&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
-  </si>
-  <si>
-    <t>获得&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（2%&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
-使用技能造成伤害时，提升&lt;color=#C97BFF&gt;2%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;，最多叠加5层，持续6秒。在最大层数时，获得&lt;color=#D14BFF&gt;15%&lt;sprite="Attributes" name="OmniVampIcon"&gt;&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>每当一个敌人被你杀死时，为你治疗&lt;color=#20FF20&gt;{0:F0}=（45+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
-  </si>
-  <si>
-    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌方英雄额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
-  </si>
-  <si>
-    <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
-根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）额外伤害&lt;/color&gt;。</t>
-  </si>
-  <si>
-    <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，持续6秒。</t>
-  </si>
-  <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
-普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
-  </si>
-  <si>
-    <t>提供非战斗状态下的60移动速度</t>
-  </si>
-  <si>
-    <t>对一名敌方英雄造成伤害时，会使其获得的任何护盾降低50%，持续3秒。当你对一名未被掠盾者影响的敌人造成伤害时，会使其身上的护盾降低50%</t>
-  </si>
-  <si>
-    <t>冲刺和跳跃会使技能的蓄力加快75%
-你的普能攻击会造成100%额外物理伤害，并且持续0.75秒的99%减速</t>
-  </si>
-  <si>
-    <t>攻击会对附近的敌人造成115(40%)物理伤害</t>
-  </si>
-  <si>
-    <t>如果一名在过去3秒内曾被你造成过伤害的英雄阵亡，则获得15攻击力，持续到回合结束，或被击杀为止。每当这个效果触发时，收集击杀的攻击力永久提升2</t>
-  </si>
-  <si>
-    <t>_passiveSkillName</t>
-  </si>
-  <si>
-    <t>复原力</t>
-  </si>
-  <si>
-    <t>主动-消耗</t>
-  </si>
-  <si>
-    <t>开火</t>
-  </si>
-  <si>
-    <t>蔑视与憎恶</t>
-  </si>
-  <si>
-    <t>邪焰</t>
-  </si>
-  <si>
-    <t>敬畏</t>
-  </si>
-  <si>
-    <t>救主灵刃</t>
-  </si>
-  <si>
-    <t>冲击</t>
-  </si>
-  <si>
-    <t>凛冬之扰</t>
-  </si>
-  <si>
-    <t>时光永恒</t>
-  </si>
-  <si>
-    <t>高能射击</t>
-  </si>
-  <si>
-    <t>余烬绽放</t>
-  </si>
-  <si>
-    <t>风暴掠袭</t>
-  </si>
-  <si>
-    <t>咒刃</t>
-  </si>
-  <si>
-    <t>艾卡西亚之咬</t>
-  </si>
-  <si>
-    <t>咒舞</t>
-  </si>
-  <si>
-    <t>魔法乐章</t>
-  </si>
-  <si>
-    <t>恶劣暴行</t>
-  </si>
-  <si>
-    <t>虚空腐蚀</t>
-  </si>
-  <si>
-    <t>死中焕生</t>
-  </si>
-  <si>
-    <t>凝霜</t>
-  </si>
-  <si>
-    <t>巨人杀手</t>
-  </si>
-  <si>
-    <t>怒火与破坏</t>
-  </si>
-  <si>
-    <t>苦难</t>
-  </si>
-  <si>
-    <t>附魔打击</t>
-  </si>
-  <si>
-    <t>鬼影萦绕</t>
-  </si>
-  <si>
-    <t>掠盾者</t>
-  </si>
-  <si>
-    <t>激电与苍穹</t>
-  </si>
-  <si>
-    <t>顺劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且持续0.75秒的99%减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死一名敌人获得15攻击力。每当这个效果触发时，使击杀获得的攻击力永久提升0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盛名</t>
-  </si>
-  <si>
-    <t>_passiveSkillCD</t>
-  </si>
-  <si>
-    <t>_activeSkillDescription</t>
-  </si>
-  <si>
-    <t>若在未购买装备的情况下购买10次及以上属性锻造器，则有机会获得碎片增幅碎片以百分比提升所有属性碎片属性。购买的越多，越容易获得更高质量的增幅碎片。</t>
-  </si>
-  <si>
-    <t>向目标方向冲刺并释放一道魔法弹影，造成&lt;color=#00D8FF&gt;{0:F0}=（&lt;color=#C97BFF&gt;100+10%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害&lt;/color&gt;。
-该装备的位移可以越过墙体。</t>
-  </si>
-  <si>
-    <t>提供30%移动速度和幽灵状态，持续6秒</t>
-  </si>
-  <si>
-    <t>对你附近的敌人造成229(80%)物理伤害，持续10秒</t>
-  </si>
-  <si>
-    <t>_activeSkillName</t>
-  </si>
-  <si>
-    <t>被动-锻体</t>
-  </si>
-  <si>
-    <t>超音速</t>
-  </si>
-  <si>
-    <t>鬼步化身</t>
-  </si>
-  <si>
-    <t>邪斩</t>
-  </si>
-  <si>
-    <t>_activeSkillCD</t>
-  </si>
-  <si>
-    <t>_uniqueEffect</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>MPBoost</t>
-  </si>
-  <si>
-    <t>CursedBlade</t>
-  </si>
-  <si>
-    <t>MagicPenetration</t>
-  </si>
-  <si>
-    <t>_usageType</t>
-  </si>
-  <si>
-    <t>Wizard</t>
-  </si>
-  <si>
-    <t>Wizard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fighter</t>
+    <t>DanceOfShadow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wizard,Fighter</t>
+    <t>幻影之舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assasin</t>
+    <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shooter</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Fighter,Wizard,Tank,Assassin,Shooter</t>
-  </si>
-  <si>
-    <t>Shooter</t>
+    <t>幽灵华尔兹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assassin</t>
+    <t>变为幽灵状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tank</t>
+    <t>{"attackSpeed":0.6,"percentageMovementSpeed":0.08,"criticalRate":0.25}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wizard,Tank</t>
-  </si>
-  <si>
-    <t>Fighter,Assassin,Shooter</t>
+    <t>Runaans_Hurricane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安娜的飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackSpeed":0.45,"criticalRate":0.25,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风怒</t>
+  </si>
+  <si>
+    <t>你的普通攻击会朝目标附近的至多2个敌人发射弩箭，每支弩箭造成&lt;color=#FF6A6A&gt;{0:F0} =（70%&lt;sprite="Attributes" name="AttackDamageIcon"&gt; + 42%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;。这些弩箭能够附带攻击特效，且可以触发暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1202,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AR10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1258,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,412 +1397,424 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT2" s="1" t="s">
+    <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+    <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1901,368 +1954,380 @@
       <c r="AU5" s="1">
         <v>2500</v>
       </c>
+      <c r="AV5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AU6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AQ7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2402,46 +2467,49 @@
       <c r="AU9" s="1">
         <v>0</v>
       </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AF10"/>
-      <c r="AQ10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>245</v>
+      <c r="AQ10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2573,193 +2641,214 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="1">
         <v>0</v>
       </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="AF14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1D1CA-A313-4E27-8453-8402F05B333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED51407B-1B92-4CB8-95E3-9DDD2AFF87A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>LegendaryAssassinEquipmentAnvil</t>
   </si>
   <si>
-    <t>LegendaryWizardEquipmentAnvil</t>
-  </si>
-  <si>
     <t>LegendaryTankEquipmentAnvil</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
   </si>
   <si>
     <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
-  </si>
-  <si>
-    <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
   </si>
   <si>
     <t>{"abilityPower":100}</t>
@@ -906,6 +900,14 @@
   </si>
   <si>
     <t>你的普通攻击会朝目标附近的至多2个敌人发射弩箭，每支弩箭造成&lt;color=#FF6A6A&gt;{0:F0} =（70%&lt;sprite="Attributes" name="AttackDamageIcon"&gt; + 42%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;。这些弩箭能够附带攻击特效，且可以触发暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegendaryWizardEquipmentAnvil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1248,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV6" sqref="AV6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1292,529 +1294,529 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AU1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AU2" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1960,374 +1962,374 @@
     </row>
     <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AS6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="AU6" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AF7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AO7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="AQ7" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AS7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AT7" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="AU7" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2473,43 +2475,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2655,200 +2657,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="W14" s="1" t="s">
+      <c r="AR14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="AV14" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED51407B-1B92-4CB8-95E3-9DDD2AFF87A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DD566-43D0-4479-B6C4-A19B90040307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Guinsoos_Rageblade</t>
   </si>
   <si>
-    <t>Youmuu_sGhostblade</t>
-  </si>
-  <si>
     <t>VoltaicCyclosword</t>
   </si>
   <si>
@@ -822,14 +819,6 @@
   </si>
   <si>
     <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供30%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;和幽灵状态，持续6秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对附近的敌人造成{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,10 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且持续0.75秒的99%减速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -908,6 +893,22 @@
   </si>
   <si>
     <t>{"abilityPower":65,"percentageMagicPenetration":0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youmuu_sGhostblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供30%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;和幽灵状态，持续6秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近的敌人造成{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,10 +1249,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1387,436 +1388,436 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AU1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="AU2" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1962,374 +1963,374 @@
     </row>
     <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="AU6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AI7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="AR7" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="AT8" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AU8" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="AV8" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2475,43 +2476,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2657,200 +2658,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DD566-43D0-4479-B6C4-A19B90040307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BBDAF9-CE13-4A18-9A01-833238280546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Guinsoos_Rageblade</t>
   </si>
   <si>
-    <t>VoltaicCyclosword</t>
-  </si>
-  <si>
     <t>ProfaneHydra</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>幽梦之灵</t>
   </si>
   <si>
-    <t>电震涌流剑</t>
-  </si>
-  <si>
     <t>亵渎九头蛇</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
   </si>
   <si>
     <t>{"attackDamage":20,"abilityPower":25,"attackSpeed":0.25}</t>
-  </si>
-  <si>
-    <t>{"attackDamage":55,"attackPenetration":22,"movementSpeed":0.04}</t>
   </si>
   <si>
     <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
@@ -829,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且持续0.75秒的99%减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杀死一名敌人获得15攻击力。每当这个效果触发时，使击杀获得的攻击力永久提升0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,6 +896,22 @@
   </si>
   <si>
     <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电震涡流剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":55,"attackPenetration":22,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VoltaicCyclosword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且给予敌人持续0.75秒的99%减速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,10 +1252,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
+      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1389,435 +1392,435 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AU1" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="AU2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1963,374 +1966,374 @@
     </row>
     <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="AU6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AK7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="AU7" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AQ8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="AT8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AU8" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="AV8" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2476,43 +2479,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2658,200 +2661,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="L14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="N14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="P14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BBDAF9-CE13-4A18-9A01-833238280546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1315D-7F87-468A-86E5-FBBC2175A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1315D-7F87-468A-86E5-FBBC2175A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08E2E1-F270-445B-9232-41D8B7E93651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -546,10 +546,6 @@
   </si>
   <si>
     <t>每6秒获得1层充能，至多6层，技能命中会消耗所有充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）×（0.65+0.35×充能层数）的魔法伤害。</t>
-  </si>
-  <si>
-    <t>你的终极技能造成&lt;color=#C97BFF&gt;额外10%魔法伤害&lt;/color&gt;
-终极技能命中时，在脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
   </si>
   <si>
     <t>造成技能伤害时会灼烧敌人，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（20+4%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，最多可叠加至3层，持续3秒。</t>
@@ -559,10 +555,6 @@
 在击杀50个敌人后，这件装备会转变为炽天使之拥</t>
   </si>
   <si>
-    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
-&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;，持续3秒。</t>
-  </si>
-  <si>
     <t>获得{0:F0}=（&lt;color=#FF6161&gt;5%额外&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。
 在击杀50个敌人后，这件装备会转变为魔切</t>
   </si>
@@ -578,12 +570,6 @@
   </si>
   <si>
     <t>技能伤害会对&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于&lt;color=#0ACD02&gt;40%&lt;/color&gt;的敌人造成额外&lt;color=#FFA347&gt;15%&lt;/color&gt;的真实伤害</t>
-  </si>
-  <si>
-    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。</t>
-  </si>
-  <si>
-    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效</t>
   </si>
   <si>
     <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。</t>
@@ -912,6 +898,24 @@
   </si>
   <si>
     <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且给予敌人持续0.75秒的99%减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能造成&lt;color=#C97BFF&gt;额外10%魔法伤害&lt;/color&gt;
+终极技能命中时，在目标脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2.5秒内使用技能对敌人造成相当于其&lt;color=#0ACD02&gt;25%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;&lt;/color&gt;的伤害，则在2秒后对其造成&lt;color=#00D8FF&gt;{0:F0}=（180+50% &lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;。若期间目标死亡则转而发生一次雷暴对范围敌人造成同等伤害。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效。冷却时间3秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间45秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,10 +1256,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1392,10 +1396,10 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>41</v>
@@ -1404,10 +1408,10 @@
         <v>42</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1545,7 @@
         <v>85</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>86</v>
@@ -1550,10 +1554,10 @@
         <v>87</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1666,10 +1670,10 @@
         <v>119</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,7 +2045,7 @@
         <v>149</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>150</v>
@@ -2071,7 +2075,7 @@
         <v>157</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>158</v>
@@ -2083,10 +2087,10 @@
         <v>160</v>
       </c>
       <c r="AU6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV6" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2120,220 +2124,220 @@
       <c r="P7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AF7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AM7" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="AQ7" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AP8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="AT8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AU8" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="AV8" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2381,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -2479,43 +2483,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2661,200 +2665,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AR14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AQ14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="AS14" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08E2E1-F270-445B-9232-41D8B7E93651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB560B-699E-4915-B1F1-ABAA0152D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Guinsoos_Rageblade</t>
   </si>
   <si>
-    <t>ProfaneHydra</t>
-  </si>
-  <si>
     <t>Hubris</t>
   </si>
   <si>
@@ -877,14 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对附近的敌人造成{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电震涡流剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,6 +905,18 @@
   <si>
     <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
 &lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间45秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProfaneHydra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对除目标外的附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对身边的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)+目标12%已损失&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。冷却时间10秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,10 +1257,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AO8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1396,435 +1397,435 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AU1" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AU2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1970,374 +1971,374 @@
     </row>
     <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="AU6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="S7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="AT7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2483,43 +2484,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2665,200 +2666,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB560B-699E-4915-B1F1-ABAA0152D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CFC77-7A63-44E3-A31F-B7BDBA4CF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Guinsoos_Rageblade</t>
   </si>
   <si>
-    <t>Hubris</t>
-  </si>
-  <si>
     <t>equipmentName</t>
   </si>
   <si>
@@ -803,10 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杀死一名敌人获得15攻击力。每当这个效果触发时，使击杀获得的攻击力永久提升0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盛名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,6 +910,14 @@
   </si>
   <si>
     <t>对身边的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)+目标12%已损失&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死一名敌人获得15&lt;sprite="Attributes" name="AttackDamageIcon"&gt;，持续20秒。每当这个效果触发时，使击杀获得的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;永久提升0.2。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,10 +1258,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AO8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
+      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1397,435 +1398,435 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>41</v>
+        <v>273</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="AU2" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -1971,374 +1972,374 @@
     </row>
     <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="AU6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AI7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="AR7" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2484,43 +2485,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2666,204 +2667,205 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02CFC77-7A63-44E3-A31F-B7BDBA4CF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE790BFD-B588-4026-BDB6-66230B25EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -747,10 +747,6 @@
   </si>
   <si>
     <t>Wizard,Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assasin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1258,10 +1254,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1398,22 +1394,22 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>84</v>
@@ -1556,10 +1552,10 @@
         <v>85</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1672,10 +1668,10 @@
         <v>117</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,7 +2043,7 @@
         <v>147</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>148</v>
@@ -2077,7 +2073,7 @@
         <v>155</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>156</v>
@@ -2089,10 +2085,10 @@
         <v>158</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,7 +2123,7 @@
         <v>168</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>169</v>
@@ -2136,13 +2132,13 @@
         <v>170</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>172</v>
@@ -2158,16 +2154,16 @@
         <v>175</v>
       </c>
       <c r="AC7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>176</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>177</v>
@@ -2197,22 +2193,22 @@
         <v>185</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2328,13 +2324,13 @@
         <v>214</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,10 +2491,10 @@
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,37 +2727,37 @@
         <v>234</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>233</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>232</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>231</v>
@@ -2779,13 +2775,13 @@
         <v>231</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>231</v>
@@ -2809,7 +2805,7 @@
         <v>231</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>231</v>
@@ -2821,7 +2817,7 @@
         <v>231</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>231</v>
@@ -2842,25 +2838,25 @@
         <v>231</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AQ14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE790BFD-B588-4026-BDB6-66230B25EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2AAE8-3134-4513-B727-9C7411A5E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,9 +585,6 @@
     <t>使用技能造成伤害会使敌人减速30%，持续1秒。</t>
   </si>
   <si>
-    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌方英雄额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
-  </si>
-  <si>
     <t>在施放技能时，获得持续6秒的2.5%暴击率，最多可叠至25%暴击率，持续6秒。
 根据你的暴击率会有概率使你的技能额外造成&lt;color=#00D8FF&gt;{0:F0}=（70+15%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）额外伤害&lt;/color&gt;。</t>
   </si>
@@ -914,6 +911,10 @@
   </si>
   <si>
     <t>杀死一名敌人获得15&lt;sprite="Attributes" name="AttackDamageIcon"&gt;，持续20秒。每当这个效果触发时，使击杀获得的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;永久提升0.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌人发动的技能和攻击额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,10 +1255,10 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1394,22 +1395,22 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1544,7 @@
         <v>83</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>84</v>
@@ -1552,10 +1553,10 @@
         <v>85</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,10 +1669,10 @@
         <v>117</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2043,7 +2044,7 @@
         <v>147</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>148</v>
@@ -2073,7 +2074,7 @@
         <v>155</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>156</v>
@@ -2085,10 +2086,10 @@
         <v>158</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,7 +2124,7 @@
         <v>168</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>169</v>
@@ -2132,13 +2133,13 @@
         <v>170</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>172</v>
@@ -2154,16 +2155,16 @@
         <v>175</v>
       </c>
       <c r="AC7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>176</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>177</v>
@@ -2180,162 +2181,162 @@
       <c r="AL7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AM7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="AQ7" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AS8" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2481,43 +2482,43 @@
     </row>
     <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2663,200 +2664,200 @@
     </row>
     <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2AAE8-3134-4513-B727-9C7411A5E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B504D1E-42A9-4A87-93AA-AF1B805BA92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -501,9 +501,6 @@
   </si>
   <si>
     <t>{"attackDamage":20,"abilityPower":25,"attackSpeed":0.25}</t>
-  </si>
-  <si>
-    <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
   </si>
   <si>
     <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":15}</t>
@@ -779,10 +776,6 @@
   </si>
   <si>
     <t>对敌人释放技能造成伤害会提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续4秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -915,6 +908,86 @@
   </si>
   <si>
     <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌人发动的技能和攻击额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guillotine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公理圆弧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackPenetration":18,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能额外造成20%真实伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeOfNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":50,"attackPenetration":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺机待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得逐渐衰减的200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheCollector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackPenetration":12,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处决敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死与税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的伤害会处决低于5%生命值的敌人。击杀敌人时提供20额外金币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,13 +1325,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV14"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AT7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomRight" activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1340,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1395,25 +1468,34 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1544,7 +1626,7 @@
         <v>83</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>84</v>
@@ -1553,13 +1635,22 @@
         <v>85</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1669,13 +1760,22 @@
         <v>117</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1820,8 +1920,17 @@
       <c r="AV4" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="AW4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -1966,8 +2075,17 @@
       <c r="AV5" s="1">
         <v>2500</v>
       </c>
+      <c r="AW5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2044,7 +2162,7 @@
         <v>147</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>148</v>
@@ -2074,269 +2192,296 @@
         <v>155</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AR6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AU6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AU6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AF7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AQ7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2479,46 +2624,55 @@
       <c r="AV9" s="1">
         <v>0</v>
       </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AS11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2661,202 +2815,220 @@
       <c r="AV12" s="1">
         <v>0</v>
       </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="AQ14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="AV14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU14" s="3" t="s">
+      <c r="AX14" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AV14" s="3" t="s">
+      <c r="AY14" s="3" t="s">
         <v>237</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B504D1E-42A9-4A87-93AA-AF1B805BA92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4A2E0-65F7-49FD-9323-F3CF1DBFACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,10 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆发伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attackDamage":50,"attackPenetration":15}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,10 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得逐渐衰减的200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TheCollector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,6 +980,14 @@
   </si>
   <si>
     <t>你的伤害会处决低于5%生命值的敌人。击杀敌人时提供20额外金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。冷却时间5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,10 +1328,10 @@
   <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AT7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AX13" sqref="AX13"/>
+      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1492,7 @@
         <v>282</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>283</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,10 +1769,10 @@
         <v>277</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,10 +2213,10 @@
         <v>279</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:51" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
         <v>183</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AR7" s="3" t="s">
         <v>264</v>
@@ -2342,10 +2342,10 @@
         <v>281</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:51" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,10 +2473,10 @@
         <v>280</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="1">
         <v>0</v>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4A2E0-65F7-49FD-9323-F3CF1DBFACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB2DC83-C654-44AE-8A87-9263F0A79A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="302">
   <si>
     <t>id</t>
   </si>
@@ -988,6 +988,34 @@
   </si>
   <si>
     <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。冷却时间5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin,Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvilCleaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶火小斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":35,"attackPenetration":12}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能在命中时会灼烧敌人，在4秒里持续造成&lt;color=#FF6A6A&gt;{0:P0}=（5%+0.2%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）至{1:P0}=（10%+0.4%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）当前&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。基于目标超过你的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;（最多2000）提升该伤害。冷却时间10秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,13 +1353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AV7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
+      <selection pane="bottomRight" activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1368,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,8 +1522,11 @@
       <c r="AY1" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="AZ1" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1649,8 +1680,11 @@
       <c r="AY2" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="AZ2" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1774,8 +1808,11 @@
       <c r="AY3" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="AZ3" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1929,8 +1966,11 @@
       <c r="AY4" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="AZ4" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -2084,8 +2124,11 @@
       <c r="AY5" s="1">
         <v>2500</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2218,8 +2261,11 @@
       <c r="AY6" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="AZ6" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -2347,8 +2393,11 @@
       <c r="AY7" s="3" t="s">
         <v>292</v>
       </c>
+      <c r="AZ7" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -2478,8 +2527,11 @@
       <c r="AY8" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="AZ8" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>213</v>
       </c>
@@ -2633,8 +2685,11 @@
       <c r="AY9" s="1">
         <v>0</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -2652,7 +2707,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -2670,7 +2725,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -2824,8 +2879,11 @@
       <c r="AY12" s="1">
         <v>0</v>
       </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -2877,7 +2935,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>228</v>
       </c>
@@ -3029,6 +3087,9 @@
         <v>237</v>
       </c>
       <c r="AY14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
         <v>237</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB2DC83-C654-44AE-8A87-9263F0A79A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BBB8EE-3216-4BB9-AABC-5069E732117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -440,9 +440,6 @@
     <t>{"abilityPower":55,"maxMagicPoint":600,"abilityHaste":25}</t>
   </si>
   <si>
-    <t>{"abilityPower":60,"maxMagicPoint":1200,"abilityHaste":25}</t>
-  </si>
-  <si>
     <t>{"attackDamage":40,"maxMagicPoint":600,"abilityHaste":15}</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
   </si>
   <si>
     <t>{"abilityPower":65,"maxHealthPoint":350,"abilityHaste":35,"percentageMovementSpeed":0.04}</t>
-  </si>
-  <si>
-    <t>{"abilityPower":100}</t>
   </si>
   <si>
     <t>{"abilityPower":60,"maxHealthPoint":350,"abilityHaste":15}</t>
@@ -564,9 +558,6 @@
   </si>
   <si>
     <t>攻击附带&lt;color=#C97BFF&gt;{0:F0}=（15+20%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。</t>
-  </si>
-  <si>
-    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升30%&lt;/color&gt;。</t>
   </si>
   <si>
     <t>用技能对敌人造成伤害时，会对其造成持续6秒的7.5%魔法抗性削减，至多叠至30%，持续5秒。</t>
@@ -882,140 +873,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ProfaneHydra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对除目标外的附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对身边的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)+目标12%已损失&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hubris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死一名敌人获得15&lt;sprite="Attributes" name="AttackDamageIcon"&gt;，持续20秒。每当这个效果触发时，使击杀获得的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;永久提升0.2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌人发动的技能和攻击额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guillotine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公理圆弧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackPenetration":18,"abilityHaste":20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的终极技能额外造成20%真实伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeOfNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁忌时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":50,"attackPenetration":15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺机待发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheCollector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackPenetration":12,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处决敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死与税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的伤害会处决低于5%生命值的敌人。击杀敌人时提供20额外金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。冷却时间5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin,Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvilCleaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶火小斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":35,"attackPenetration":12}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能在命中时会灼烧敌人，在4秒里持续造成&lt;color=#FF6A6A&gt;{0:P0}=（5%+0.2%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）至{1:P0}=（10%+0.4%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）当前&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。基于目标超过你的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;（最多2000）提升该伤害。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worglet_sDeathcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃格勒特的巫师帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师神装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":60,"maxMagicPoint":1200,"abilityHaste":25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":300,"maxMagicPoint":2000,"abilityHaste":50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升30%&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法终章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使你的&lt;color=#C97BFF&gt;总&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;提升50%&lt;/color&gt;。
+获得{0:F0}=（&lt;color=#C97BFF&gt;10%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
+&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+&lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间30秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
-&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+ &lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间45秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProfaneHydra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击会对除目标外的附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)物理伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对身边的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=(80%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;)+目标12%已损失&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。冷却时间10秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hubris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死一名敌人获得15&lt;sprite="Attributes" name="AttackDamageIcon"&gt;，持续20秒。每当这个效果触发时，使击杀获得的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;永久提升0.2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;高于你的敌人发动的技能和攻击额外造成至多15%真实伤害。当最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;差异大于2500时，即可达到最大伤害值提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guillotine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公理圆弧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极技能伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":50,"attackPenetration":18,"abilityHaste":20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":45,"attackPenetration":18,"abilityHaste":20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的终极技能额外造成20%真实伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeOfNight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁忌时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":50,"attackPenetration":15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺机待发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供60&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TheCollector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":45,"attackPenetration":12,"criticalRate":0.25}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处决敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死与税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的伤害会处决低于5%生命值的敌人。击杀敌人时提供20额外金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆发移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得&lt;color=#FF6A6A&gt;15&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;&lt;/color&gt;，如果你击杀一个敌人，则你获得200&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;，持续1.5秒。冷却时间5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin,Shooter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvilCleaver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶火小斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克克星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":35,"attackPenetration":12}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧焦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能在命中时会灼烧敌人，在4秒里持续造成&lt;color=#FF6A6A&gt;{0:P0}=（5%+0.2%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）至{1:P0}=（10%+0.4%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;）当前&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的物理伤害&lt;/color&gt;。基于目标超过你的&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;（最多2000）提升该伤害。冷却时间10秒。</t>
+&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+&lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间45秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,13 +1386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ14"/>
+  <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AV7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AZ7" sqref="AZ7"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1401,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1496,37 +1529,40 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1657,7 +1693,7 @@
         <v>83</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>84</v>
@@ -1666,25 +1702,28 @@
         <v>85</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1794,25 +1833,28 @@
         <v>117</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1969,8 +2011,11 @@
       <c r="AZ4" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="BA4" s="3" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -2127,8 +2172,11 @@
       <c r="AZ5" s="1">
         <v>2500</v>
       </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -2165,375 +2213,384 @@
       <c r="S6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AU6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AR6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AD7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AT7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AU8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AX8" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AY8" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2688,46 +2745,49 @@
       <c r="AZ9" s="1">
         <v>10</v>
       </c>
+      <c r="BA9" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2882,215 +2942,224 @@
       <c r="AZ12" s="1">
         <v>0</v>
       </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AI13" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="M14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA14" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BBB8EE-3216-4BB9-AABC-5069E732117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5860F-6E51-4C17-ADF7-4E8917500777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,12 +461,6 @@
     <t>{"abilityPower":90,"attackDamage":45,"omnivamp":0.15}</t>
   </si>
   <si>
-    <t>{"abilityPower":90,"maxHealthPoint":250,"abilityHaste":15}</t>
-  </si>
-  <si>
-    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
-  </si>
-  <si>
     <t>{"abilityPower":80,"percentageMovementSpeed":0.1,"abilityHaste":20}</t>
   </si>
   <si>
@@ -1049,6 +1043,14 @@
   <si>
     <t>获得{0:F0}=（&lt;color=#C97BFF&gt;6%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;。
 &lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;低于30%时，回复{1:F0} =（300+&lt;color=#1DA1FF&gt;20%最大&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;）&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;。冷却时间45秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"magicPenetration":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,10 +1391,10 @@
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -1529,37 +1531,37 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1693,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>84</v>
@@ -1702,25 +1704,25 @@
         <v>85</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,25 +1835,25 @@
         <v>117</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,7 +2014,7 @@
         <v>121</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,7 +2216,7 @@
         <v>134</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>135</v>
@@ -2237,360 +2239,360 @@
       <c r="AA6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="AU6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AT7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA7" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2751,43 +2753,43 @@
     </row>
     <row r="10" spans="1:53" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2948,218 +2950,218 @@
     </row>
     <row r="13" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AX14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="AY14" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5860F-6E51-4C17-ADF7-4E8917500777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24DE36-87E1-4B1E-B5F7-C2B9D84FEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>传说级战士装备</t>
   </si>
   <si>
-    <t>传说级射手装备</t>
-  </si>
-  <si>
     <t>传说级刺客装备</t>
   </si>
   <si>
@@ -519,9 +516,6 @@
   </si>
   <si>
     <t>自动开启一个半随机的选择，以选取一件传说级坦克装备。</t>
-  </si>
-  <si>
-    <t>自动开启一个半随机的选择，以选取一件棱彩级装备装备。</t>
   </si>
   <si>
     <t>每6秒获得1层充能，至多6层，技能命中会消耗所有充能来对目标造成&lt;color=#C97BFF&gt;{0:F0}&lt;/color&gt;=（80+&lt;color=#C97BFF&gt;5%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+&lt;color=#FF8A00&gt;6%额外&lt;/color&gt;&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）×（0.65+0.35×充能层数）的魔法伤害。</t>
@@ -1051,6 +1045,14 @@
   </si>
   <si>
     <t>{"abilityPower":90,"magicPenetration":15,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说级射手装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启一个半随机的选择，以选取一件棱彩级装备装备。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,12 +1084,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1102,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,6 +1119,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1391,10 +1405,10 @@
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1407,619 +1421,619 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>296</v>
+      <c r="AQ1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>297</v>
+      <c r="AU2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AU3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
@@ -2058,7 +2072,7 @@
         <v>2000</v>
       </c>
       <c r="N5" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O5" s="1">
         <v>2500</v>
@@ -2180,419 +2194,419 @@
     </row>
     <row r="6" spans="1:53" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="V6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA6" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:53" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AT7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="BA7" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -2753,43 +2767,43 @@
     </row>
     <row r="10" spans="1:53" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2950,218 +2964,218 @@
     </row>
     <row r="13" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AX14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="AY14" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BA14" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24DE36-87E1-4B1E-B5F7-C2B9D84FEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107BA7D-A3DD-4E29-96D5-073A8B866A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="363">
   <si>
     <t>id</t>
   </si>
@@ -1053,6 +1053,219 @@
   </si>
   <si>
     <t>自动开启一个半随机的选择，以选取一件棱彩级装备装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavoriQuickblades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳沃利烁刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackSpeed":0.35,"criticalRate":0.25,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡入圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的攻击会使你的各个非终极技能的冷却时间缩短15%剩余冷却时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RapidFirecannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾射火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackSpeed":0.30,"criticalRate":0.25,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击造成200额外魔法伤害并获得35%额外攻击距离。攻击距离的提升不能多于150码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stormrazor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackSpeed":0.25,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击附带100额外魔法伤害并提供持续1.5秒的45%移动速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺萃之镰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":50,"abilityHaste":20,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精萃汲取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得攻击特效：攻击时恢复{0:F0} =（10%法力值）法力值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多米尼克领主的致意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":30,"percentageAttackPenetration":0.4,"criticalRate":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EssenceReaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortalReminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatikkShiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔缇克电刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackSpeed":0.4,"percentageMovementSpeed":0.04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成{0:F0}=（80+45%攻击力+66%法术强度）的魔法伤害。冷却时间5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hullbreaker</t>
+  </si>
+  <si>
+    <t>海克斯注力刚壁</t>
+  </si>
+  <si>
+    <t>增强终极技能</t>
+  </si>
+  <si>
+    <t>{"attackDamage":40,"attackSpeed":0.3,"maxHealthPoint":450}</t>
+  </si>
+  <si>
+    <t>过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施放你的终极技能后，获得持续8秒的50%总攻击速度和20%总移动速度。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooter,Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育恩塔尔荒野箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击增幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YuentareWildArrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":45,"attackSpeed":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时，永久获得0.5%暴击几率，至多至25%。
+攻击敌人时，获得持续6秒的30%攻击速度。冷却时间30秒。攻击可以使冷却时间缩短1秒，根据暴击率有概率额外缩短1秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风骤雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrinityForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三相之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单挑能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":33,"attackSpeed":0.33,"maxHealthPoint":333,"abilityHaste":33}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后，你的下一次普通攻击会强化而附带额外的{0:F0}=（133%基础攻击力）的物理伤害，并提供3秒的33移动速度。冷却时间1.5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1402,13 +1615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BH7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1630,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1577,8 +1790,35 @@
       <c r="BA1" s="5" t="s">
         <v>294</v>
       </c>
+      <c r="BB1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1738,8 +1978,35 @@
       <c r="BA2" s="5" t="s">
         <v>295</v>
       </c>
+      <c r="BB2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1869,8 +2136,35 @@
       <c r="BA3" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="BB3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -2030,8 +2324,35 @@
       <c r="BA4" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="BB4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -2191,8 +2512,35 @@
       <c r="BA5" s="1">
         <v>0</v>
       </c>
+      <c r="BB5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -2331,8 +2679,35 @@
       <c r="BA6" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="BB6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -2466,8 +2841,32 @@
       <c r="BA7" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="BB7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -2603,8 +3002,32 @@
       <c r="BA8" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="BB8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>206</v>
       </c>
@@ -2764,8 +3187,35 @@
       <c r="BA9" s="1">
         <v>30</v>
       </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>10</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>30</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>207</v>
       </c>
@@ -2783,7 +3233,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>210</v>
       </c>
@@ -2801,7 +3251,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
@@ -2961,8 +3411,35 @@
       <c r="BA12" s="1">
         <v>0</v>
       </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>216</v>
       </c>
@@ -3016,8 +3493,11 @@
       <c r="BA13" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="BJ13" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>221</v>
       </c>
@@ -3176,6 +3656,33 @@
       </c>
       <c r="BA14" s="3" t="s">
         <v>223</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107BA7D-A3DD-4E29-96D5-073A8B866A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC0069-F66C-4BC7-ABAC-F65F3F35C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,10 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的盈能攻击造成200额外魔法伤害并获得35%额外攻击距离。攻击距离的提升不能多于150码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stormrazor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1266,6 +1262,10 @@
   </si>
   <si>
     <t>施放技能后，你的下一次普通攻击会强化而附带额外的{0:F0}=（133%基础攻击力）的物理伤害，并提供3秒的33移动速度。冷却时间1.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击造成200额外魔法伤害并在完全盈能时获得35%攻击距离。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,10 +1618,10 @@
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BH7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
+      <selection pane="bottomRight" activeCell="BD6" sqref="BD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,32 +1790,32 @@
       <c r="BA1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="5" t="s">
         <v>309</v>
       </c>
       <c r="BC1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="BD1" s="3" t="s">
-        <v>321</v>
+      <c r="BD1" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="BE1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="BH1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1978,32 +1978,32 @@
       <c r="BA2" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="5" t="s">
         <v>310</v>
       </c>
       <c r="BC2" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="BD2" s="3" t="s">
-        <v>322</v>
+      <c r="BD2" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,25 +2143,25 @@
         <v>317</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,25 +2686,25 @@
         <v>318</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,25 +2845,25 @@
         <v>314</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3009,22 +3009,22 @@
         <v>319</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
         <v>218</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>229</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BI14" s="3" t="s">
         <v>229</v>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC0069-F66C-4BC7-ABAC-F65F3F35C509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59D539-7C93-4B74-A147-AC73714688E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,9 +497,6 @@
     <t>_passiveSkillDescription</t>
   </si>
   <si>
-    <t>回复&lt;color=#0066FF&gt;35&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>自动开启一次半随机的选择，用来获得一个永久属性加成。</t>
   </si>
   <si>
@@ -566,10 +563,6 @@
   </si>
   <si>
     <t>使用技能伤害敌人会灼烧敌人，每秒造成其&lt;color=#00D8FF&gt;1%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，最多叠加至&lt;color=#00D8FF&gt;8%最大&lt;sprite="Attributes" name="MaxHealthPointIcon"&gt;的魔法伤害&lt;/color&gt;，持续6秒。</t>
-  </si>
-  <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
-普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
   </si>
   <si>
     <t>_passiveSkillName</t>
@@ -844,10 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的盈能攻击会造成100&lt;color=#FF6A6A&gt;物理伤害&lt;/color&gt;，并且给予敌人持续0.75秒的99%减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你的终极技能造成&lt;color=#C97BFF&gt;额外10%魔法伤害&lt;/color&gt;
 终极技能命中时，在目标脚下生成灼烧区域，持续3秒，每秒造成&lt;color=#00D8FF&gt;{0:F0}=（15+5%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）魔法伤害&lt;/color&gt;，并削减敌人&lt;color=#C97BFF&gt;25魔法抗性&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,10 +1109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的盈能攻击附带100额外魔法伤害并提供持续1.5秒的45%移动速度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夺萃之镰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1140,10 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得攻击特效：攻击时恢复{0:F0} =（10%法力值）法力值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多米尼克领主的致意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1184,10 +1165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成{0:F0}=（80+45%攻击力+66%法术强度）的魔法伤害。冷却时间5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hullbreaker</t>
   </si>
   <si>
@@ -1204,10 +1181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在施放你的终极技能后，获得持续8秒的50%总攻击速度和20%总移动速度。冷却时间10秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shooter,Fighter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,44 +1201,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>疾风骤雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrinityForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三相之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单挑能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":33,"attackSpeed":0.33,"maxHealthPoint":333,"abilityHaste":33}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击造成&lt;color=#00D8FF&gt;200魔法伤害&lt;/color&gt;并在完全盈能时获得35%攻击距离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复&lt;color=#0066FF&gt;35&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时恢复&lt;color=#0066FF&gt;{0:F0} =（10%&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;）&lt;sprite="Attributes" name="MaxMagicPointIcon"&gt;&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击附带&lt;color=#00D8FF&gt;100魔法伤害&lt;/color&gt;并提供持续1.5秒的45%&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成&lt;color=#00D8FF&gt;{0:F0}=（80+45%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）的魔法伤害&lt;/color&gt;。冷却时间5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
+普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击时，永久获得0.5%暴击几率，至多至25%。
-攻击敌人时，获得持续6秒的30%攻击速度。冷却时间30秒。攻击可以使冷却时间缩短1秒，根据暴击率有概率额外缩短1秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风骤雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrinityForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三相之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单挑能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attackDamage":33,"attackSpeed":0.33,"maxHealthPoint":333,"abilityHaste":33}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咒刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CursedBlade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施放技能后，你的下一次普通攻击会强化而附带额外的{0:F0}=（133%基础攻击力）的物理伤害，并提供3秒的33移动速度。冷却时间1.5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的盈能攻击造成200额外魔法伤害并在完全盈能时获得35%攻击距离。</t>
+攻击敌人时，获得持续6秒的&lt;color=#E0C300&gt;30%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;。冷却时间30秒。攻击可以使冷却时间缩短1秒，根据暴击率有概率额外缩短1秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在施放你的终极技能后，获得持续8秒的&lt;color=#E0C300&gt;50%总&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;和20%总&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的盈能攻击会造成&lt;color=#FF6A6A&gt;100物理伤害&lt;/color&gt;，并且给予敌人持续0.75秒的99%减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后，你的下一次普通攻击会强化而附带额外的&lt;color=#FF6A6A&gt;{0:F0}=（200%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;，并提供3秒的33&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。冷却时间1.5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,10 +1620,10 @@
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BH6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD6" sqref="BD6"/>
+      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1758,64 +1760,64 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AS1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AX1" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="BF1" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="BG1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="BH1" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="BI1" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1847,7 +1849,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>50</v>
@@ -1949,7 +1951,7 @@
         <v>82</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>83</v>
@@ -1958,52 +1960,52 @@
         <v>84</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="BE2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="BF2" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="BF2" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="BG2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="BH2" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="BI2" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2116,52 +2118,52 @@
         <v>116</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="BE3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="BF3" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="BG3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BH3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="BH3" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="BI3" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,7 +2324,7 @@
         <v>120</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>120</v>
@@ -2578,7 +2580,7 @@
         <v>133</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>134</v>
@@ -2602,10 +2604,10 @@
         <v>140</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>141</v>
@@ -2617,10 +2619,10 @@
         <v>143</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>144</v>
@@ -2647,10 +2649,10 @@
         <v>150</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>151</v>
@@ -2659,377 +2661,377 @@
         <v>152</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BE6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF6" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="BF6" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="BG6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH6" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="BH6" s="3" t="s">
+      <c r="BI6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="BI6" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="BJ6" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AD7" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AT7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AT7" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="AU7" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="BC7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="BG7" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ7" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:62" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="BG8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BH8" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="BH8" s="3" t="s">
+      <c r="BI8" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="BI8" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="BJ8" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -3217,43 +3219,43 @@
     </row>
     <row r="10" spans="1:62" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="AF11"/>
       <c r="AQ11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3441,248 +3443,248 @@
     </row>
     <row r="13" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="AJ14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="AV14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW14" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="AX14" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="AY14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA14" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF59D539-7C93-4B74-A147-AC73714688E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A628C2-33C0-4BB8-8219-D187739193F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,10 +1620,10 @@
   <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BH6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BJ7" sqref="BJ7"/>
+      <selection pane="bottomRight" activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1816,7 @@
       <c r="BI1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       <c r="BI2" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>348</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A628C2-33C0-4BB8-8219-D187739193F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E781F-3597-4322-AB86-7D6BEE84F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="396">
   <si>
     <t>id</t>
   </si>
@@ -1249,11 +1249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
-普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时每次攻击额外附带33%的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击时，永久获得0.5%暴击几率，至多至25%。
 攻击敌人时，获得持续6秒的&lt;color=#E0C300&gt;30%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;。冷却时间30秒。攻击可以使冷却时间缩短1秒，根据暴击率有概率额外缩短1秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,6 +1263,143 @@
   </si>
   <si>
     <t>施放技能后，你的下一次普通攻击会强化而附带额外的&lt;color=#FF6A6A&gt;{0:F0}=（200%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;，并提供3秒的33&lt;sprite="Attributes" name="MovementSpeedIcon"&gt;。冷却时间1.5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeBow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带&lt;color=#00D8FF&gt;{0:F0} =（10+3%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;+6%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）魔法伤害&lt;/color&gt;的攻击特效。
+普攻提供&lt;color=#E0C300&gt;8%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，最多叠加至&lt;color=#E0C300&gt;32%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;，持续4秒。满层时使你的攻击特效造成额外33%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":30,"attackSpeed":0.25}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光影交相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击造成30额外魔法伤害。
+在持续攻击时，在光明特效和黑暗特效之间切换：附带光明特效的攻击提供持续5秒的8护甲和魔法抗性（至多至32）；附带黑暗特效的攻击提供持续5秒的8%护甲穿透和法术穿透（至多至32%）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeOfTheRuinedKing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破败王者之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带额外8%敌人当前生命值的物理伤害的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾之锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stridebreaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺进破坏者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗机动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":40,"attackSpeed":0.15,"maxHealthPoint":375}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对附近的敌人造成{0:F0}=（40%攻击力）的物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺劈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破阵冲击</t>
+  </si>
+  <si>
+    <t>对附近的敌人造成{0:F0}=（175%攻击力+105%法术强度）物理伤害并施加40%减速。冷却时间15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RavenousHydra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪欲九头蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":70,"abilityHaste":15,"lifeSteal":0.15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对周围的敌人造成{0:F0}=（40%攻击力）的物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对周围敌人造成{0:F0}=（130%攻击力）的物理伤害。你的生命偷取会作用于此伤害。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloodthirster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":70,"lifeSteal":0.18}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你血量全满时，获得额外10%攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attackDamage":30,"attackSpeed":0.2,"lifeSteal":0.1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1617,13 +1749,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ14"/>
+  <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BH6" sqref="BH6"/>
+      <selection pane="bottomRight" activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1764,7 @@
     <col min="26" max="16384" width="32.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,8 +1951,23 @@
       <c r="BJ1" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="BK1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2007,8 +2154,23 @@
       <c r="BJ2" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="BK2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -2165,8 +2327,23 @@
       <c r="BJ3" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="BK3" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -2353,8 +2530,23 @@
       <c r="BJ4" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="BK4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -2541,8 +2733,23 @@
       <c r="BJ5" s="1">
         <v>2500</v>
       </c>
+      <c r="BK5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" ht="273" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" ht="273" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -2708,8 +2915,23 @@
       <c r="BJ6" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="BK6" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -2808,13 +3030,13 @@
         <v>174</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>275</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>259</v>
@@ -2859,16 +3081,31 @@
         <v>357</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BN7" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
@@ -3028,8 +3265,23 @@
       <c r="BJ8" s="3" t="s">
         <v>351</v>
       </c>
+      <c r="BK8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
@@ -3216,8 +3468,23 @@
       <c r="BJ9" s="1">
         <v>1.5</v>
       </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>205</v>
       </c>
@@ -3234,8 +3501,14 @@
       <c r="AS10" s="3" t="s">
         <v>260</v>
       </c>
+      <c r="BM10" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BN10" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>208</v>
       </c>
@@ -3252,8 +3525,14 @@
       <c r="AS11" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="BM11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BN11" s="3" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>213</v>
       </c>
@@ -3440,8 +3719,23 @@
       <c r="BJ12" s="1">
         <v>0</v>
       </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>10</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>214</v>
       </c>
@@ -3492,14 +3786,23 @@
       <c r="AM13" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="AS13" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="BA13" s="1" t="s">
         <v>216</v>
       </c>
       <c r="BJ13" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="BM13" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BN13" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>219</v>
       </c>
@@ -3685,6 +3988,21 @@
       </c>
       <c r="BJ14" s="3" t="s">
         <v>222</v>
+      </c>
+      <c r="BK14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO14" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E781F-3597-4322-AB86-7D6BEE84F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E72FC1-E8C3-4019-8D25-01D593DAECE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="398">
   <si>
     <t>id</t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t>_activeSkillCD</t>
-  </si>
-  <si>
-    <t>_uniqueEffect</t>
   </si>
   <si>
     <t>Guardian</t>
@@ -1395,11 +1392,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双重穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attackDamage":30,"attackSpeed":0.2,"lifeSteal":0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_uniqueEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicPenetration,AttackPenetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPenetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合穿透</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,10 +1761,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL6" sqref="BL6"/>
+      <selection pane="bottomRight" activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1799,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>11</v>
@@ -1892,79 +1901,79 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BE1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="BH1" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,7 +2005,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>50</v>
@@ -2098,7 +2107,7 @@
         <v>82</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>83</v>
@@ -2107,67 +2116,67 @@
         <v>84</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2280,67 +2289,67 @@
         <v>116</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2501,7 +2510,7 @@
         <v>120</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>120</v>
@@ -2787,7 +2796,7 @@
         <v>133</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>134</v>
@@ -2811,10 +2820,10 @@
         <v>140</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>141</v>
@@ -2826,10 +2835,10 @@
         <v>143</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>144</v>
@@ -2856,10 +2865,10 @@
         <v>150</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>151</v>
@@ -2868,67 +2877,67 @@
         <v>152</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,7 +2945,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>154</v>
@@ -2957,13 +2966,13 @@
         <v>159</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>160</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>161</v>
@@ -2972,13 +2981,13 @@
         <v>162</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>163</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>164</v>
@@ -2994,19 +3003,19 @@
         <v>167</v>
       </c>
       <c r="AC7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>169</v>
@@ -3021,7 +3030,7 @@
         <v>172</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>173</v>
@@ -3030,79 +3039,79 @@
         <v>174</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR7" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="BG7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="BJ7" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="BK7" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3218,67 +3227,67 @@
         <v>203</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,16 +3505,16 @@
       </c>
       <c r="AF10"/>
       <c r="AQ10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3526,10 +3535,10 @@
         <v>212</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,273 +3745,279 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="BK13" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="BK14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="BL14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM14" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="BN14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO14" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA14" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BL14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BN14" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BO14" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E72FC1-E8C3-4019-8D25-01D593DAECE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1173C6C-68E4-4AC7-9AF3-427D17B388B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,10 +1242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成&lt;color=#00D8FF&gt;{0:F0}=（80+45%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）的魔法伤害&lt;/color&gt;。冷却时间5秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击时，永久获得0.5%暴击几率，至多至25%。
 攻击敌人时，获得持续6秒的&lt;color=#E0C300&gt;30%&lt;sprite="Attributes" name="AttackSpeedIcon"&gt;&lt;/color&gt;。冷却时间30秒。攻击可以使冷却时间缩短1秒，根据暴击率有概率额外缩短1秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,11 +1280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击造成30额外魔法伤害。
-在持续攻击时，在光明特效和黑暗特效之间切换：附带光明特效的攻击提供持续5秒的8护甲和魔法抗性（至多至32）；附带黑暗特效的攻击提供持续5秒的8%护甲穿透和法术穿透（至多至32%）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BladeOfTheRuinedKing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击附带额外8%敌人当前生命值的物理伤害的攻击特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雾之锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1321,10 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击会对附近的敌人造成{0:F0}=（40%攻击力）的物理伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺劈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1336,10 +1319,6 @@
     <t>破阵冲击</t>
   </si>
   <si>
-    <t>对附近的敌人造成{0:F0}=（175%攻击力+105%法术强度）物理伤害并施加40%减速。冷却时间15秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RavenousHydra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,14 +1335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击会对周围的敌人造成{0:F0}=（40%攻击力）的物理伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对周围敌人造成{0:F0}=（130%攻击力）的物理伤害。你的生命偷取会作用于此伤害。冷却时间10秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1388,10 +1359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当你血量全满时，获得额外10%攻击力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"attackDamage":30,"attackSpeed":0.2,"lifeSteal":0.1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1409,6 +1376,34 @@
   </si>
   <si>
     <t>混合穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击附带额外&lt;color=#FF6A6A&gt;8%敌人当前生命值的物理伤害&lt;/color&gt;的攻击特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击会对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>攻击会对周围的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（40%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>当你血量全满时，获得额外10%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。</t>
+  </si>
+  <si>
+    <t>对周围敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（130%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。你的生命偷取会作用于此伤害。冷却时间10秒。</t>
+  </si>
+  <si>
+    <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成&lt;color=#00D8FF&gt;{0:F0}=（80+45%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;66%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）的魔法伤害&lt;/color&gt;。冷却时间5秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（175%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;105%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;并施加40%减速。冷却时间15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击造成30额外&lt;color=#00D8FF&gt;魔法伤害&lt;/color&gt;。每次攻击切换特效：附带光明的攻击提供8&lt;sprite="Attributes" name="AttackDefenseIcon"&gt;和&lt;sprite="Attributes" name="MagicDefenseIcon"&gt;；附带黑暗的攻击提供8%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;和&lt;sprite="Attributes" name="MagicPenetrationIcon"&gt;。两种特效均持续5秒，最多叠加4层。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1761,10 +1756,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK4" sqref="BK4"/>
+      <selection pane="bottomRight" activeCell="BK8" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1960,20 +1955,20 @@
       <c r="BJ1" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="BK1" s="3" t="s">
-        <v>361</v>
+      <c r="BK1" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="BN1" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,20 +2158,20 @@
       <c r="BJ2" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="BK2" s="3" t="s">
-        <v>363</v>
+      <c r="BK2" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="BN2" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="BO2" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,19 +2332,19 @@
         <v>348</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BL3" s="3" t="s">
         <v>286</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="BN3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="BO3" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2925,19 +2920,19 @@
         <v>349</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BN6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BO6" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="BO6" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,13 +3034,13 @@
         <v>174</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>274</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>258</v>
@@ -3087,31 +3082,31 @@
         <v>354</v>
       </c>
       <c r="BG7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="BH7" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="BJ7" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3275,19 +3270,19 @@
         <v>350</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,10 +3506,10 @@
         <v>259</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="BN10" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3535,10 +3530,10 @@
         <v>212</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3746,7 +3741,7 @@
     </row>
     <row r="13" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>214</v>
@@ -3793,28 +3788,28 @@
         <v>217</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="BJ13" s="3" t="s">
         <v>351</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1173C6C-68E4-4AC7-9AF3-427D17B388B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD499B0-D7B3-4AA4-A325-26F488D31FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,11 +1399,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（175%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;105%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;并施加40%减速。冷却时间15秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击造成30额外&lt;color=#00D8FF&gt;魔法伤害&lt;/color&gt;。每次攻击切换特效：附带光明的攻击提供8&lt;sprite="Attributes" name="AttackDefenseIcon"&gt;和&lt;sprite="Attributes" name="MagicDefenseIcon"&gt;；附带黑暗的攻击提供8%&lt;sprite="Attributes" name="AttackPenetrationIcon"&gt;和&lt;sprite="Attributes" name="MagicPenetrationIcon"&gt;。两种特效均持续5秒，最多叠加4层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（175%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;105%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;并施加3秒40%减速。冷却时间15秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1756,10 +1756,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BI6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BK8" sqref="BK8"/>
+      <selection pane="bottomRight" activeCell="BM1" activeCellId="1" sqref="BM2 BM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1961,7 @@
       <c r="BL1" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="5" t="s">
         <v>368</v>
       </c>
       <c r="BN1" s="3" t="s">
@@ -2164,7 +2164,7 @@
       <c r="BL2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="5" t="s">
         <v>369</v>
       </c>
       <c r="BN2" s="3" t="s">
@@ -3094,7 +3094,7 @@
         <v>359</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BL7" s="3" t="s">
         <v>390</v>
@@ -3506,7 +3506,7 @@
         <v>259</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BN10" s="3" t="s">
         <v>394</v>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD499B0-D7B3-4AA4-A325-26F488D31FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC055C87-EB3B-4899-ABE4-0C9E956D16E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1392,9 +1392,6 @@
     <t>当你血量全满时，获得额外10%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;。</t>
   </si>
   <si>
-    <t>对周围敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（130%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。你的生命偷取会作用于此伤害。冷却时间10秒。</t>
-  </si>
-  <si>
     <t>你的下5次攻击会在命中时会触发连锁闪电，对最多5个目标造成&lt;color=#00D8FF&gt;{0:F0}=（80+45%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;66%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）的魔法伤害&lt;/color&gt;。冷却时间5秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1404,6 +1401,10 @@
   </si>
   <si>
     <t>对附近的敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（175%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;+&lt;color=#7700BB&gt;105%&lt;/color&gt;&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;）物理伤害&lt;/color&gt;并施加3秒40%减速。冷却时间15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对周围敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（130%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。你的&lt;sprite="Attributes" name="LifeStealIcon"&gt;会作用于此伤害。冷却时间10秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1756,10 +1757,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BL7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BM1" activeCellId="1" sqref="BM2 BM1"/>
+      <selection pane="bottomRight" activeCell="BN10" sqref="BN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1965,7 @@
       <c r="BM1" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="5" t="s">
         <v>375</v>
       </c>
       <c r="BO1" s="3" t="s">
@@ -2167,7 +2168,7 @@
       <c r="BM2" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BN2" s="5" t="s">
         <v>376</v>
       </c>
       <c r="BO2" s="3" t="s">
@@ -3082,7 +3083,7 @@
         <v>354</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BH7" s="3" t="s">
         <v>357</v>
@@ -3094,7 +3095,7 @@
         <v>359</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BL7" s="3" t="s">
         <v>390</v>
@@ -3506,10 +3507,10 @@
         <v>259</v>
       </c>
       <c r="BM10" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BN10" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="BN10" s="3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC055C87-EB3B-4899-ABE4-0C9E956D16E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC0A83-E7A3-4F2F-B0BA-C529BFD40B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1757,10 +1757,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BL7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BN10" sqref="BN10"/>
+      <selection pane="bottomRight" activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,7 +1968,7 @@
       <c r="BN1" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="5" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="BN2" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BO2" s="5" t="s">
         <v>381</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/EquipmentConfig.xlsx
+++ b/Assets/Resources/Configs/EquipmentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AC0A83-E7A3-4F2F-B0BA-C529BFD40B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78E532-EC89-4EAC-9CCE-2BD5F1958A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>施放技能后5秒内，下次&lt;sprite="Attributes" name="AttackDamageIcon"&gt;会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的&lt;sprite="Attributes" name="AttackDamageIcon"&gt;特效。冷却时间3秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProfaneHydra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1405,6 +1401,10 @@
   </si>
   <si>
     <t>对周围敌人造成&lt;color=#FF6A6A&gt;{0:F0}=（130%&lt;sprite="Attributes" name="AttackDamageIcon"&gt;）的物理伤害&lt;/color&gt;。你的&lt;sprite="Attributes" name="LifeStealIcon"&gt;会作用于此伤害。冷却时间10秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放技能后5秒内，下次攻击会附带额外的&lt;color=#00D8FF&gt;{0:F0}&lt;/color&gt;=（&lt;color=#FF6161&gt;75%基础&lt;sprite="Attributes" name="AttackDamageIcon"&gt;&lt;/color&gt;+&lt;color=#C97BFF&gt;66%&lt;sprite="Attributes" name="AbilityPowerIcon"&gt;&lt;/color&gt;）魔法伤害的攻击特效。冷却时间3秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1757,10 +1757,10 @@
   <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BL6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BO6" sqref="BO6"/>
+      <selection pane="bottomRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1903,10 +1903,10 @@
         <v>253</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AU1" s="5" t="s">
         <v>235</v>
@@ -1915,61 +1915,61 @@
         <v>241</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BE1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="BH1" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BM1" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BN1" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BO1" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>50</v>
@@ -2118,61 +2118,61 @@
         <v>242</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,61 +2291,61 @@
         <v>243</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2506,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BB4" s="1" t="s">
         <v>120</v>
@@ -2792,7 +2792,7 @@
         <v>133</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>134</v>
@@ -2816,10 +2816,10 @@
         <v>140</v>
       </c>
       <c r="AB6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>141</v>
@@ -2834,7 +2834,7 @@
         <v>248</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>144</v>
@@ -2864,7 +2864,7 @@
         <v>252</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>151</v>
@@ -2879,61 +2879,61 @@
         <v>244</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BA6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BF6" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BJ6" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BN6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>154</v>
@@ -2962,7 +2962,7 @@
         <v>159</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>160</v>
@@ -2977,7 +2977,7 @@
         <v>162</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>163</v>
@@ -3002,7 +3002,7 @@
         <v>255</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>168</v>
@@ -3011,7 +3011,7 @@
         <v>232</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>169</v>
@@ -3026,7 +3026,7 @@
         <v>172</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>173</v>
@@ -3035,19 +3035,19 @@
         <v>174</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AU7" s="3" t="s">
         <v>239</v>
@@ -3056,58 +3056,58 @@
         <v>246</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BD7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="BI7" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BE7" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG7" s="3" t="s">
+      <c r="BJ7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="BK7" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="BH7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="BJ7" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="BK7" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="BL7" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="BM7" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="BM7" s="3" t="s">
+      <c r="BN7" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="BN7" s="3" t="s">
+      <c r="BO7" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="BO7" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3232,58 +3232,58 @@
         <v>245</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BN8" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BO8" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,13 +3504,13 @@
         <v>250</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BM10" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="BN10" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="BN10" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3531,10 +3531,10 @@
         <v>212</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BN11" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
     </row>
     <row r="13" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>214</v>
@@ -3789,28 +3789,28 @@
         <v>217</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>215</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3965,7 +3965,7 @@
         <v>227</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>227</v>
@@ -3992,7 +3992,7 @@
         <v>226</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BI14" s="3" t="s">
         <v>226</v>
